--- a/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/WorkSpace/unity/_project/jynew/jyx2/Assets/Mods/JYX2/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89217D-229A-438A-88BD-D1E15F11201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA522F-3568-CB4B-8A6A-5EC441E17553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4740" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="640">
   <si>
     <t>Id</t>
   </si>
@@ -316,1255 +316,406 @@
     <t>练出物品（练出物品ID，需要物品ID,需要物品数量）</t>
   </si>
   <si>
-    <t>康倍特</t>
-  </si>
-  <si>
     <t>康</t>
   </si>
   <si>
-    <t>活性饮料，迅速补充你的体力</t>
-  </si>
-  <si>
-    <t>精气丸</t>
-  </si>
-  <si>
     <t>精气丸</t>
   </si>
   <si>
-    <t>中药提炼，可恢复些许体力</t>
-  </si>
-  <si>
-    <t>白岚氏鸡精</t>
-  </si>
-  <si>
     <t>白岚</t>
   </si>
   <si>
-    <t>生命虚弱时赶紧饮用</t>
-  </si>
-  <si>
-    <t>小还丹</t>
-  </si>
-  <si>
     <t>小</t>
   </si>
   <si>
-    <t>疗伤药丸，可恢复少许生命</t>
-  </si>
-  <si>
-    <t>玉洞黑石丹</t>
-  </si>
-  <si>
     <t>玉洞</t>
   </si>
   <si>
-    <t>崆峒派所有，可恢复些许生命</t>
-  </si>
-  <si>
-    <t>玉真散</t>
-  </si>
-  <si>
     <t>玉真</t>
   </si>
   <si>
-    <t>华山派所有，可恢复些许生命</t>
-  </si>
-  <si>
-    <t>三黄宝腊丹</t>
-  </si>
-  <si>
     <t>三</t>
   </si>
   <si>
-    <t>武当派所有，可恢复些许生命</t>
-  </si>
-  <si>
-    <t>玉灵散</t>
-  </si>
-  <si>
     <t>玉灵</t>
   </si>
   <si>
-    <t>少林寺之伤科圣药，可恢复生命</t>
-  </si>
-  <si>
-    <t>天香断续胶</t>
-  </si>
-  <si>
     <t>天香断</t>
   </si>
   <si>
-    <t>恒山派所有，能恢复许多生命</t>
-  </si>
-  <si>
-    <t>黑玉断续膏</t>
-  </si>
-  <si>
     <t>黑玉断</t>
   </si>
   <si>
-    <t>疗伤圣药，可补满生命</t>
-  </si>
-  <si>
-    <t>金牛运功散</t>
-  </si>
-  <si>
     <t>金牛运</t>
   </si>
   <si>
-    <t>内伤别怕，用后可将人轻易举起</t>
-  </si>
-  <si>
     <t>人</t>
   </si>
   <si>
-    <t>天然补品，可恢复少许内力</t>
-  </si>
-  <si>
-    <t>白云熊胆丸</t>
-  </si>
-  <si>
     <t>白云熊胆</t>
   </si>
   <si>
-    <t>恒山派所有，可恢复些许内力</t>
-  </si>
-  <si>
-    <t>九花玉露丸</t>
-  </si>
-  <si>
     <t>九</t>
   </si>
   <si>
-    <t>桃花岛所有，可恢复内力及解毒</t>
-  </si>
-  <si>
-    <t>九转灵宝丸</t>
-  </si>
-  <si>
-    <t>全真教所有，可恢复内力</t>
-  </si>
-  <si>
-    <t>田七鲨胆散</t>
-  </si>
-  <si>
     <t>田七</t>
   </si>
   <si>
-    <t>桃花岛所制，可恢复许多内力</t>
-  </si>
-  <si>
-    <t>九转熊蛇丸</t>
-  </si>
-  <si>
-    <t>逍遥派疗伤圣药，可补满内力</t>
-  </si>
-  <si>
-    <t>无常丹</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
-    <t>桃花岛所有，可恢复生命及内力</t>
-  </si>
-  <si>
-    <t>镇心理气丸</t>
-  </si>
-  <si>
     <t>镇心理</t>
   </si>
   <si>
-    <t>名家配制，迅速恢复内力及生命</t>
-  </si>
-  <si>
-    <t>生生造化丹</t>
-  </si>
-  <si>
     <t>生生造</t>
   </si>
   <si>
-    <t>疗伤圣药，有起死回生之神效</t>
-  </si>
-  <si>
-    <t>天王保命丹</t>
-  </si>
-  <si>
     <t>天王保</t>
   </si>
   <si>
-    <t>神奇丹药，有起死回生之神效</t>
-  </si>
-  <si>
-    <t>宝济丸</t>
-  </si>
-  <si>
     <t>宝</t>
   </si>
   <si>
-    <t>肚内疼痛，疑似中毒请用</t>
-  </si>
-  <si>
-    <t>黄连解毒丸</t>
-  </si>
-  <si>
     <t>黄连</t>
   </si>
   <si>
-    <t>民间常见之解毒丸，由黄连所制</t>
-  </si>
-  <si>
-    <t>天心解毒丹</t>
-  </si>
-  <si>
     <t>天心解毒</t>
   </si>
   <si>
-    <t>武当派所制之解毒丸</t>
-  </si>
-  <si>
-    <t>回阳五龙膏</t>
-  </si>
-  <si>
     <t>回</t>
   </si>
   <si>
-    <t>崆峒派所有，可解毒</t>
-  </si>
-  <si>
-    <t>牛黄血竭丹</t>
-  </si>
-  <si>
     <t>牛黄血竭丹</t>
   </si>
   <si>
-    <t>胡青牛秘方之解毒灵药</t>
-  </si>
-  <si>
-    <t>六阳正气丹</t>
-  </si>
-  <si>
     <t>六阳正气丹</t>
   </si>
   <si>
-    <t>少林寺所有，可医治奇毒</t>
-  </si>
-  <si>
-    <t>朱晴冰蟾</t>
-  </si>
-  <si>
     <t>朱晴冰</t>
   </si>
   <si>
-    <t>产于雪山，可反复吸取剧毒</t>
-  </si>
-  <si>
-    <t>伏苓首乌丸</t>
-  </si>
-  <si>
     <t>伏苓</t>
   </si>
   <si>
-    <t>千年奇药，可提高生命最大值</t>
-  </si>
-  <si>
-    <t>千年灵芝</t>
-  </si>
-  <si>
     <t>千</t>
   </si>
   <si>
-    <t>珍贵补品，可提高生命最大值</t>
-  </si>
-  <si>
-    <t>蛇胆</t>
-  </si>
-  <si>
     <t>蛇</t>
   </si>
   <si>
-    <t>毒蛇之胆，可提高内力最大值</t>
-  </si>
-  <si>
-    <t>五宝花蜜酒</t>
-  </si>
-  <si>
     <t>五宝</t>
   </si>
   <si>
-    <t>五毒调制而成，提高内力最大值</t>
-  </si>
-  <si>
-    <t>腊八粥</t>
-  </si>
-  <si>
     <t>腊八</t>
   </si>
   <si>
-    <t>珍奇花草制成，提高内力最大值</t>
-  </si>
-  <si>
-    <t>大蟠桃</t>
-  </si>
-  <si>
     <t>大</t>
   </si>
   <si>
-    <t>珍贵异果，可提高内力最大值</t>
-  </si>
-  <si>
-    <t>千年物，提高生命及内力最大值</t>
-  </si>
-  <si>
-    <t>天山雪莲</t>
-  </si>
-  <si>
     <t>天山</t>
   </si>
   <si>
-    <t>珍贵物，提高生命及内力最大值</t>
-  </si>
-  <si>
-    <t>通犀地龙丸</t>
-  </si>
-  <si>
     <t>通</t>
   </si>
   <si>
-    <t>西域异兽所制，服食后百毒不侵</t>
-  </si>
-  <si>
-    <t>千年冰蚕</t>
-  </si>
-  <si>
-    <t>毒性极高，可使练毒者功力大增</t>
-  </si>
-  <si>
-    <t>莽牯朱蛤</t>
-  </si>
-  <si>
     <t>莽牯朱蛤</t>
   </si>
   <si>
-    <t>万毒之王，服食之后百毒不侵</t>
-  </si>
-  <si>
-    <t>紫霞秘籍</t>
-  </si>
-  <si>
     <t>紫霞秘笈</t>
   </si>
   <si>
-    <t>华山派修行内功之心法</t>
-  </si>
-  <si>
-    <t>小无相功</t>
-  </si>
-  <si>
-    <t>逍遥派之内功心法</t>
-  </si>
-  <si>
-    <t>十八泥偶</t>
-  </si>
-  <si>
     <t>十</t>
   </si>
   <si>
-    <t>记载少林罗汉伏魔神功泥偶</t>
-  </si>
-  <si>
-    <t>神照经</t>
-  </si>
-  <si>
     <t>神照经</t>
   </si>
   <si>
-    <t>修习内功之奥妙法门</t>
-  </si>
-  <si>
-    <t>易筋经</t>
-  </si>
-  <si>
     <t>易筋经</t>
   </si>
   <si>
-    <t>少林寺修行内功之无上心法</t>
-  </si>
-  <si>
-    <t>洗髓经</t>
-  </si>
-  <si>
     <t>洗</t>
   </si>
   <si>
-    <t>失传之内功宝典</t>
-  </si>
-  <si>
-    <t>梯云纵心法</t>
-  </si>
-  <si>
     <t>梯云纵</t>
   </si>
   <si>
-    <t>武当派修行轻功之心法</t>
-  </si>
-  <si>
-    <t>神行百变</t>
-  </si>
-  <si>
     <t>神行百变</t>
   </si>
   <si>
-    <t>增加轻功能力的武功秘籍</t>
-  </si>
-  <si>
-    <t>凌波微步</t>
-  </si>
-  <si>
     <t>凌波</t>
   </si>
   <si>
-    <t>逍遥派绝学，可增强轻功能力</t>
-  </si>
-  <si>
-    <t>子午针灸经</t>
-  </si>
-  <si>
     <t>子</t>
   </si>
   <si>
-    <t>探讨穴道，经脉之医书</t>
-  </si>
-  <si>
     <t>1,1|3,2|22,3|4,4|16,5</t>
   </si>
   <si>
-    <t>华陀内昭图</t>
-  </si>
-  <si>
     <t>华陀内昭</t>
   </si>
   <si>
-    <t>医学宝典</t>
-  </si>
-  <si>
     <t>5,6|6,7|14,8|15,9|8,10</t>
   </si>
   <si>
-    <t>胡青牛医书</t>
-  </si>
-  <si>
     <t>胡</t>
   </si>
   <si>
-    <t>蝶谷医仙医术精华之记录</t>
-  </si>
-  <si>
     <t>25,11|7,12|12,13|9,14|17,15</t>
   </si>
   <si>
-    <t>五毒秘传</t>
-  </si>
-  <si>
     <t>五毒</t>
   </si>
   <si>
-    <t>五毒教秘籍，记载用毒解毒方法</t>
-  </si>
-  <si>
     <t>22,3|23,6|24,9</t>
   </si>
   <si>
-    <t>毒经</t>
-  </si>
-  <si>
     <t>毒</t>
   </si>
   <si>
-    <t>毒仙王难姑所著之用毒宝典</t>
-  </si>
-  <si>
     <t>22,3|23,6|24,9|25,12</t>
   </si>
   <si>
-    <t>药王神篇</t>
-  </si>
-  <si>
     <t>药王神篇</t>
   </si>
   <si>
-    <t>毒手药王之毕生心血著作</t>
-  </si>
-  <si>
     <t>22,3|23,6|24,9|25,12|26,15</t>
   </si>
   <si>
-    <t>铁掌拳谱</t>
-  </si>
-  <si>
     <t>铁</t>
   </si>
   <si>
-    <t>铁掌帮之扬名绝学</t>
-  </si>
-  <si>
-    <t>七伤拳谱</t>
-  </si>
-  <si>
     <t>七</t>
   </si>
   <si>
-    <t>崆峒派之独门拳法</t>
-  </si>
-  <si>
-    <t>天山六阳掌</t>
-  </si>
-  <si>
-    <t>逍遥派之掌法秘籍</t>
-  </si>
-  <si>
-    <t>玄冥神掌</t>
-  </si>
-  <si>
     <t>玄冥神掌</t>
   </si>
   <si>
-    <t>失传已久的武林绝学</t>
-  </si>
-  <si>
-    <t>太极拳经</t>
-  </si>
-  <si>
     <t>太极拳经</t>
   </si>
   <si>
-    <t>武当派之新创绝学，四两拨千斤</t>
-  </si>
-  <si>
-    <t>龙象般若功</t>
-  </si>
-  <si>
     <t>龙</t>
   </si>
   <si>
-    <t>密宗至高无上之护法神功</t>
-  </si>
-  <si>
-    <t>太玄经</t>
-  </si>
-  <si>
     <t>太玄经</t>
   </si>
   <si>
-    <t>无人可解之神秘武功</t>
-  </si>
-  <si>
-    <t>黯然销魂掌</t>
-  </si>
-  <si>
     <t>黯</t>
   </si>
   <si>
-    <t>杨过所创之强力掌法</t>
-  </si>
-  <si>
-    <t>降龙十八掌</t>
-  </si>
-  <si>
     <t>降龙</t>
   </si>
   <si>
-    <t>丐帮镇帮之宝</t>
-  </si>
-  <si>
-    <t>北冥神功</t>
-  </si>
-  <si>
     <t>北</t>
   </si>
   <si>
-    <t>逍遥派绝学，吸人内力化为己用</t>
-  </si>
-  <si>
-    <t>吸星大法</t>
-  </si>
-  <si>
     <t>吸</t>
   </si>
   <si>
-    <t>可吸敌人内力化为己用</t>
-  </si>
-  <si>
-    <t>神木王鼎</t>
-  </si>
-  <si>
     <t>神木王鼎</t>
   </si>
   <si>
-    <t>星宿海掌门练化功大法之物</t>
-  </si>
-  <si>
-    <t>六脉神剑谱</t>
-  </si>
-  <si>
     <t>六脉神剑</t>
   </si>
   <si>
-    <t>大理段家之超强剑气绝学</t>
-  </si>
-  <si>
-    <t>松风剑谱</t>
-  </si>
-  <si>
     <t>松</t>
   </si>
   <si>
-    <t>四川青城之剑法</t>
-  </si>
-  <si>
-    <t>泰山十八盘</t>
-  </si>
-  <si>
     <t>泰山</t>
   </si>
   <si>
-    <t>泰山派高深之剑法</t>
-  </si>
-  <si>
-    <t>回峰落雁剑法</t>
-  </si>
-  <si>
-    <t>衡山派千变万化之剑法</t>
-  </si>
-  <si>
-    <t>七星剑谱</t>
-  </si>
-  <si>
-    <t>王重阳悟于北斗七星之剑法</t>
-  </si>
-  <si>
-    <t>两仪剑法</t>
-  </si>
-  <si>
     <t>两仪剑</t>
   </si>
   <si>
-    <t>昆仑派之独门绝学</t>
-  </si>
-  <si>
-    <t>金蛇秘籍</t>
-  </si>
-  <si>
     <t>金蛇</t>
   </si>
   <si>
-    <t>金蛇郎君观蛇时悟出之剑法</t>
-  </si>
-  <si>
-    <t>玉女素心剑法</t>
-  </si>
-  <si>
     <t>玉女</t>
   </si>
   <si>
-    <t>古墓派轻巧之剑法</t>
-  </si>
-  <si>
-    <t>苗家剑法</t>
-  </si>
-  <si>
     <t>苗</t>
   </si>
   <si>
-    <t>苗人凤家传剑法</t>
-  </si>
-  <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
     <t>太极剑</t>
   </si>
   <si>
-    <t>张三丰新创之剑法</t>
-  </si>
-  <si>
-    <t>达摩剑谱</t>
-  </si>
-  <si>
     <t>达</t>
   </si>
   <si>
-    <t>少林七十二绝技之一</t>
-  </si>
-  <si>
-    <t>玄铁剑法</t>
-  </si>
-  <si>
     <t>玄铁</t>
   </si>
   <si>
-    <t>杨过悟于剑魔所留之秘籍</t>
-  </si>
-  <si>
-    <t>辟邪剑谱</t>
-  </si>
-  <si>
     <t>辟</t>
   </si>
   <si>
-    <t>剑法阴损毒辣，修习者断子绝孙</t>
-  </si>
-  <si>
-    <t>独孤九剑</t>
-  </si>
-  <si>
     <t>独</t>
   </si>
   <si>
-    <t>独孤求败所创之高深剑法</t>
-  </si>
-  <si>
-    <t>血刀经</t>
-  </si>
-  <si>
     <t>血刀</t>
   </si>
   <si>
-    <t>可修练血刀刀法</t>
-  </si>
-  <si>
-    <t>火焰刀法</t>
-  </si>
-  <si>
     <t>火焰</t>
   </si>
   <si>
-    <t>西域大轮寺刀法绝学</t>
-  </si>
-  <si>
-    <t>反两仪刀法</t>
-  </si>
-  <si>
     <t>反两仪刀</t>
   </si>
   <si>
-    <t>华山派武学刀法</t>
-  </si>
-  <si>
-    <t>狂风刀法</t>
-  </si>
-  <si>
     <t>狂</t>
   </si>
   <si>
-    <t>速度极快之刀法</t>
-  </si>
-  <si>
-    <t>胡家刀法</t>
-  </si>
-  <si>
-    <t>胡一刀家传之刀谱</t>
-  </si>
-  <si>
-    <t>霹雳刀法</t>
-  </si>
-  <si>
     <t>霹</t>
   </si>
   <si>
-    <t>霹雳三绝中之刀谱</t>
-  </si>
-  <si>
-    <t>毒龙鞭法</t>
-  </si>
-  <si>
-    <t>轻盈灵巧，千变万化之鞭法</t>
-  </si>
-  <si>
-    <t>黄沙万里鞭法</t>
-  </si>
-  <si>
     <t>黄沙</t>
   </si>
   <si>
-    <t>相传至西域之鞭法</t>
-  </si>
-  <si>
-    <t>满天花雨</t>
-  </si>
-  <si>
     <t>满天花雨</t>
   </si>
   <si>
-    <t>增加暗器能力</t>
-  </si>
-  <si>
-    <t>霹雳秘籍</t>
-  </si>
-  <si>
-    <t>霹雳三绝中之暗器总诀</t>
-  </si>
-  <si>
     <t>101,10</t>
   </si>
   <si>
-    <t>含沙射影</t>
-  </si>
-  <si>
     <t>含</t>
   </si>
   <si>
-    <t>五毒教之暗器总诀</t>
-  </si>
-  <si>
-    <t>左右互搏之术</t>
-  </si>
-  <si>
     <t>左右</t>
   </si>
   <si>
-    <t>修习后可攻击两次</t>
-  </si>
-  <si>
-    <t>乾坤大挪移</t>
-  </si>
-  <si>
     <t>干坤</t>
   </si>
   <si>
-    <t>明教宝典，修行后可增加防御力</t>
-  </si>
-  <si>
-    <t>葵花宝典</t>
-  </si>
-  <si>
     <t>葵花宝</t>
   </si>
   <si>
-    <t>道家修行内功之无上心法</t>
-  </si>
-  <si>
-    <t>九阴真经</t>
-  </si>
-  <si>
-    <t>至高无上之武功宝典</t>
-  </si>
-  <si>
-    <t>九阳真经</t>
-  </si>
-  <si>
-    <t>飞蝗石</t>
-  </si>
-  <si>
     <t>飞蝗石</t>
   </si>
   <si>
-    <t>普通暗器</t>
-  </si>
-  <si>
-    <t>金钱镖</t>
-  </si>
-  <si>
     <t>金钱镖</t>
   </si>
   <si>
-    <t>飞刀</t>
-  </si>
-  <si>
     <t>飞刀</t>
   </si>
   <si>
-    <t>菩提子</t>
-  </si>
-  <si>
     <t>菩提子</t>
   </si>
   <si>
-    <t>金蛇锥</t>
-  </si>
-  <si>
-    <t>金蛇郎君之独门暗器</t>
-  </si>
-  <si>
-    <t>霹雳弹</t>
-  </si>
-  <si>
-    <t>霹雳三绝中之火爆暗器</t>
-  </si>
-  <si>
-    <t>毒蒺黎</t>
-  </si>
-  <si>
-    <t>含毒之暗器</t>
-  </si>
-  <si>
-    <t>玉蜂针</t>
-  </si>
-  <si>
     <t>玉蜂针</t>
   </si>
   <si>
-    <t>古墓派暗器，含蜂毒</t>
-  </si>
-  <si>
-    <t>冰魄银针</t>
-  </si>
-  <si>
     <t>冰</t>
   </si>
   <si>
-    <t>古墓派暗器，含剧毒</t>
-  </si>
-  <si>
-    <t>黑血神针</t>
-  </si>
-  <si>
     <t>黑血神针</t>
   </si>
   <si>
-    <t>日月神教所有，含毒之暗器</t>
-  </si>
-  <si>
-    <t>玄铁剑</t>
-  </si>
-  <si>
-    <t>玄铁铸成之重剑</t>
-  </si>
-  <si>
-    <t>君子剑</t>
-  </si>
-  <si>
     <t>君</t>
   </si>
   <si>
-    <t>剑客适用，适轻盈剑法</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
     <t>淑</t>
   </si>
   <si>
-    <t>倚天剑</t>
-  </si>
-  <si>
     <t>倚天剑</t>
   </si>
   <si>
-    <t>玄铁铸成之剑，武林奇宝</t>
-  </si>
-  <si>
-    <t>金蛇剑</t>
-  </si>
-  <si>
-    <t>金蛇郎君之随身武器</t>
-  </si>
-  <si>
-    <t>凝碧剑</t>
-  </si>
-  <si>
     <t>凝碧剑</t>
   </si>
   <si>
-    <t>剑客适用</t>
-  </si>
-  <si>
-    <t>白龙剑</t>
-  </si>
-  <si>
     <t>白龙</t>
   </si>
   <si>
-    <t>白虹剑</t>
-  </si>
-  <si>
     <t>白虹</t>
   </si>
   <si>
-    <t>周公剑</t>
-  </si>
-  <si>
     <t>周</t>
   </si>
   <si>
-    <t>血刀</t>
-  </si>
-  <si>
-    <t>刀客适用，配合血刀刀法尤佳</t>
-  </si>
-  <si>
-    <t>冷月宝刀</t>
-  </si>
-  <si>
     <t>冷</t>
   </si>
   <si>
-    <t>刀客适用</t>
-  </si>
-  <si>
-    <t>屠龙刀</t>
-  </si>
-  <si>
     <t>屠</t>
   </si>
   <si>
-    <t>武林至尊，宝刀屠龙</t>
-  </si>
-  <si>
-    <t>绿波香露刀</t>
-  </si>
-  <si>
     <t>绿波</t>
   </si>
   <si>
-    <t>霹雳狂刀</t>
-  </si>
-  <si>
-    <t>传说中人物之神秘宝刀</t>
-  </si>
-  <si>
-    <t>软猬甲</t>
-  </si>
-  <si>
     <t>软</t>
   </si>
   <si>
-    <t>生满倒刺，可增加攻防力</t>
-  </si>
-  <si>
-    <t>金丝背心</t>
-  </si>
-  <si>
     <t>金丝背</t>
   </si>
   <si>
-    <t>可增加防御力</t>
-  </si>
-  <si>
-    <t>乌蚕衣</t>
-  </si>
-  <si>
     <t>乌</t>
   </si>
   <si>
-    <t>鳄皮护甲</t>
-  </si>
-  <si>
     <t>鳄</t>
   </si>
   <si>
-    <t>鳄鱼皮所制，可增加防御力</t>
-  </si>
-  <si>
-    <t>玉蜂浆</t>
-  </si>
-  <si>
     <t>玉蜂浆</t>
   </si>
   <si>
-    <t>养蜂者的最爱，可吸引蜂群</t>
-  </si>
-  <si>
-    <t>黑木令牌</t>
-  </si>
-  <si>
     <t>黑木令</t>
   </si>
   <si>
-    <t>黑木崖通行之信物</t>
-  </si>
-  <si>
-    <t>梨花酒</t>
-  </si>
-  <si>
     <t>梨花酒</t>
   </si>
   <si>
-    <t>杭州名酒</t>
-  </si>
-  <si>
-    <t>翡翠杯</t>
-  </si>
-  <si>
     <t>翡</t>
   </si>
   <si>
-    <t>梨花酒若配合此杯饮用风味更佳</t>
-  </si>
-  <si>
-    <t>七宝指环</t>
-  </si>
-  <si>
-    <t>逍遥派掌门之信物</t>
-  </si>
-  <si>
-    <t>神仙美女图</t>
-  </si>
-  <si>
     <t>神仙</t>
   </si>
   <si>
-    <t>女子画像</t>
-  </si>
-  <si>
-    <t>大燕传国玉玺</t>
-  </si>
-  <si>
-    <t>大燕王朝传国之玉玺</t>
-  </si>
-  <si>
-    <t>大燕皇帝世系图表</t>
-  </si>
-  <si>
-    <t>大燕王朝历代皇帝姓名图表</t>
-  </si>
-  <si>
-    <t>赏善罚恶令</t>
-  </si>
-  <si>
     <t>赏善罚</t>
   </si>
   <si>
-    <t>受邀进入侠客岛之信物</t>
-  </si>
-  <si>
-    <t>两页刀法</t>
-  </si>
-  <si>
     <t>两页刀</t>
   </si>
   <si>
-    <t>疑似某刀谱之缺页</t>
-  </si>
-  <si>
-    <t>断肠草</t>
-  </si>
-  <si>
     <t>断</t>
   </si>
   <si>
-    <t>生于情花旁之植物</t>
-  </si>
-  <si>
-    <t>闯王军刀</t>
-  </si>
-  <si>
     <t>闯王军</t>
   </si>
   <si>
-    <t>闯王当年之随身武器</t>
-  </si>
-  <si>
-    <t>玄冰碧火酒</t>
-  </si>
-  <si>
     <t>玄冰</t>
   </si>
   <si>
-    <t>可调和阴阳之毒</t>
-  </si>
-  <si>
-    <t>苗人凤眼毒解药</t>
-  </si>
-  <si>
-    <t>可医治断肠草粉末所制之毒</t>
-  </si>
-  <si>
-    <t>羊羔坐臀</t>
-  </si>
-  <si>
     <t>羊羔坐臀</t>
   </si>
   <si>
-    <t>食物的材料之一</t>
-  </si>
-  <si>
-    <t>小牛腰子</t>
-  </si>
-  <si>
-    <t>小猪耳朵</t>
-  </si>
-  <si>
-    <t>獐腿肉</t>
-  </si>
-  <si>
     <t>獐腿</t>
   </si>
   <si>
-    <t>兔肉</t>
-  </si>
-  <si>
     <t>兔肉</t>
   </si>
   <si>
-    <t>神杖</t>
-  </si>
-  <si>
     <t>神杖</t>
   </si>
   <si>
-    <t>武林盟主之信物</t>
-  </si>
-  <si>
-    <t>飞狐外传</t>
-  </si>
-  <si>
     <t>飞狐外</t>
   </si>
   <si>
-    <t>一本小说</t>
-  </si>
-  <si>
-    <t>雪山飞狐</t>
-  </si>
-  <si>
     <t>雪山</t>
   </si>
   <si>
-    <t>连城诀</t>
-  </si>
-  <si>
     <t>连</t>
   </si>
   <si>
-    <t>天龙八部</t>
-  </si>
-  <si>
     <t>天龙</t>
   </si>
   <si>
-    <t>射雕英雄传</t>
-  </si>
-  <si>
     <t>射</t>
   </si>
   <si>
-    <t>白马啸西风</t>
-  </si>
-  <si>
     <t>白马啸</t>
   </si>
   <si>
-    <t>鹿鼎记</t>
-  </si>
-  <si>
     <t>鹿鼎记</t>
   </si>
   <si>
-    <t>笑傲江湖</t>
-  </si>
-  <si>
     <t>笑傲江湖</t>
   </si>
   <si>
-    <t>书剑恩仇录</t>
-  </si>
-  <si>
     <t>书剑</t>
-  </si>
-  <si>
-    <t>神雕侠侣</t>
   </si>
   <si>
     <r>
@@ -1617,375 +768,121 @@
     </r>
   </si>
   <si>
-    <t>侠客行</t>
-  </si>
-  <si>
     <t>侠</t>
   </si>
   <si>
-    <t>倚天屠龙记</t>
-  </si>
-  <si>
     <t>倚天屠</t>
   </si>
   <si>
-    <t>碧血剑</t>
-  </si>
-  <si>
     <t>碧血剑</t>
   </si>
   <si>
-    <t>鸳鸯刀</t>
-  </si>
-  <si>
     <t>鸳</t>
   </si>
   <si>
-    <t>七心海棠</t>
-  </si>
-  <si>
-    <t>此物炼制后奇毒无比，天下之最</t>
-  </si>
-  <si>
-    <t>可兰经</t>
-  </si>
-  <si>
     <t>可</t>
   </si>
   <si>
-    <t>回教圣书</t>
-  </si>
-  <si>
-    <t>唐诗选辑</t>
-  </si>
-  <si>
     <t>唐诗选辑</t>
   </si>
   <si>
-    <t>普通百姓都懂的唐诗三百首</t>
-  </si>
-  <si>
-    <t>红钥匙</t>
-  </si>
-  <si>
     <t>红钥</t>
   </si>
   <si>
-    <t>梅庄二庄主黑白子给的钥匙</t>
-  </si>
-  <si>
-    <t>橙钥匙</t>
-  </si>
-  <si>
     <t>橙钥</t>
   </si>
   <si>
-    <t>大轮寺番僧身上带的钥匙</t>
-  </si>
-  <si>
-    <t>黄钥匙</t>
-  </si>
-  <si>
     <t>黄钥</t>
   </si>
   <si>
-    <t>孔八拉送的钥匙</t>
-  </si>
-  <si>
-    <t>绿钥匙</t>
-  </si>
-  <si>
     <t>绿钥</t>
   </si>
   <si>
-    <t>孔八拉给的神秘钥匙</t>
-  </si>
-  <si>
-    <t>蓝钥匙</t>
-  </si>
-  <si>
     <t>蓝钥</t>
   </si>
   <si>
-    <t>华山派获得之钥匙</t>
-  </si>
-  <si>
-    <t>紫钥匙</t>
-  </si>
-  <si>
     <t>紫钥</t>
   </si>
   <si>
-    <t>慕容复给的钥匙</t>
-  </si>
-  <si>
-    <t>铁钥匙</t>
-  </si>
-  <si>
-    <t>神秘钥匙</t>
-  </si>
-  <si>
-    <t>铜钥匙</t>
-  </si>
-  <si>
     <t>铜钥</t>
   </si>
   <si>
-    <t>银钥匙</t>
-  </si>
-  <si>
     <t>银钥</t>
   </si>
   <si>
-    <t>金钥匙</t>
-  </si>
-  <si>
     <t>金钥</t>
   </si>
   <si>
-    <t>药材</t>
-  </si>
-  <si>
     <t>药材</t>
   </si>
   <si>
-    <t>各式中药材，制作丹药所需</t>
-  </si>
-  <si>
-    <t>硝石</t>
-  </si>
-  <si>
     <t>硝</t>
   </si>
   <si>
-    <t>可做成火药，制成霹雳弹所需</t>
-  </si>
-  <si>
-    <t>一朵蓝花</t>
-  </si>
-  <si>
     <t>一</t>
   </si>
   <si>
-    <t>形状奇特之蓝色花朵，幽香淡淡</t>
-  </si>
-  <si>
-    <t>银两</t>
-  </si>
-  <si>
     <t>银两</t>
   </si>
   <si>
-    <t>很好用的东西，甚至能使鬼推磨</t>
-  </si>
-  <si>
-    <t>闯王藏宝图</t>
-  </si>
-  <si>
     <t>闯王藏宝</t>
   </si>
   <si>
-    <t>乌笔峰下，坐标（６４，５１）</t>
-  </si>
-  <si>
-    <t>玉笛谁家听落梅</t>
-  </si>
-  <si>
     <t>玉笛谁家</t>
   </si>
   <si>
-    <t>一道佳肴</t>
-  </si>
-  <si>
-    <t>广陵散琴曲</t>
-  </si>
-  <si>
     <t>广</t>
   </si>
   <si>
-    <t>失传之嵇康名曲</t>
-  </si>
-  <si>
-    <t>刘仲甫呕血棋谱</t>
-  </si>
-  <si>
     <t>刘</t>
   </si>
   <si>
-    <t>刘仲甫输给乡下老媪之棋谱</t>
-  </si>
-  <si>
-    <t>张旭率意帖</t>
-  </si>
-  <si>
     <t>张</t>
   </si>
   <si>
-    <t>唐朝书法名家张旭的真迹</t>
-  </si>
-  <si>
-    <t>溪山行旅图</t>
-  </si>
-  <si>
     <t>溪山</t>
   </si>
   <si>
-    <t>北宋范中立之精心杰作</t>
-  </si>
-  <si>
-    <t>一撮金毛</t>
-  </si>
-  <si>
-    <t>金毛狮王谢逊之毛发</t>
-  </si>
-  <si>
-    <t>罗盘</t>
-  </si>
-  <si>
     <t>罗盘</t>
   </si>
   <si>
-    <t>可显示目前之坐标与船之位置</t>
-  </si>
-  <si>
-    <t>带头大哥书信</t>
-  </si>
-  <si>
     <t>带</t>
   </si>
   <si>
-    <t>武林密函，内容关系重大</t>
-  </si>
-  <si>
-    <t>手帕</t>
-  </si>
-  <si>
     <t>手帕</t>
   </si>
   <si>
-    <t>织有鸳鸯的手帕</t>
-  </si>
-  <si>
-    <t>林震南遗言</t>
-  </si>
-  <si>
     <t>林</t>
   </si>
   <si>
-    <t>福威镳局林震南死前留下之书信</t>
-  </si>
-  <si>
-    <t>智慧果</t>
-  </si>
-  <si>
     <t>智慧</t>
   </si>
   <si>
-    <t>相传使用后可增加智能</t>
-  </si>
-  <si>
-    <t>鸳刀</t>
-  </si>
-  <si>
-    <t>相传藏有无敌于天下的秘密</t>
-  </si>
-  <si>
-    <t>鸯刀</t>
-  </si>
-  <si>
     <t>鸯</t>
   </si>
   <si>
-    <t>武林帖</t>
-  </si>
-  <si>
     <t>武</t>
   </si>
   <si>
-    <t>请持此函前往华山参加武林大会</t>
-  </si>
-  <si>
-    <t>明教铁焰令</t>
-  </si>
-  <si>
     <t>明教铁</t>
   </si>
   <si>
-    <t>明教高层人事间的信物</t>
-  </si>
-  <si>
-    <t>一颗头颅</t>
-  </si>
-  <si>
-    <t>成昆的项上人头</t>
-  </si>
-  <si>
-    <t>真武剑</t>
-  </si>
-  <si>
     <t>真</t>
   </si>
   <si>
-    <t>武当派镇教宝剑</t>
-  </si>
-  <si>
-    <t>金盆洗手请帖</t>
-  </si>
-  <si>
     <t>金盆洗</t>
   </si>
   <si>
-    <t>受邀到衡山派观礼之请帖</t>
-  </si>
-  <si>
-    <t>烧刀子</t>
-  </si>
-  <si>
     <t>烧</t>
   </si>
   <si>
-    <t>辛辣之酒</t>
-  </si>
-  <si>
-    <t>铁铲</t>
-  </si>
-  <si>
-    <t>可用来挖掘东西</t>
-  </si>
-  <si>
-    <t>槟榔</t>
-  </si>
-  <si>
     <t>槟</t>
   </si>
   <si>
-    <t>提神醒脑，可提升体力</t>
-  </si>
-  <si>
-    <t>皮衣</t>
-  </si>
-  <si>
     <t>皮衣</t>
   </si>
   <si>
-    <t>”兄弟”常穿服饰，因防御力强</t>
-  </si>
-  <si>
-    <t>无用</t>
-  </si>
-  <si>
-    <t>最后</t>
-  </si>
-  <si>
     <t>最后</t>
-  </si>
-  <si>
-    <t>人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
@@ -2002,13 +899,1107 @@
   <si>
     <t>L_string</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conbet</t>
+  </si>
+  <si>
+    <t>Thuốc Tĩnh Kỳ</t>
+  </si>
+  <si>
+    <t>Nước cốt gà Bailan</t>
+  </si>
+  <si>
+    <t>Tiêu Hoàn Đan</t>
+  </si>
+  <si>
+    <t>Viên đá đen hang Ngọc</t>
+  </si>
+  <si>
+    <t>Bột ngọc thật</t>
+  </si>
+  <si>
+    <t>Tam Hoàng Baoladan</t>
+  </si>
+  <si>
+    <t>Ngọc Linh San</t>
+  </si>
+  <si>
+    <t>Keo không liên tục Tianxiang</t>
+  </si>
+  <si>
+    <t>Kem Ngọc Ngọc Đen</t>
+  </si>
+  <si>
+    <t>Bột may mắn của Kim Ngưu</t>
+  </si>
+  <si>
+    <t>Nhân sâm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thuốc Bạch Vân Hùng Đan</t>
+  </si>
+  <si>
+    <t>Thuốc Cửu Hoa Ngọc Lộ</t>
+  </si>
+  <si>
+    <t>Cửu Trại Linh Bảo Đan</t>
+  </si>
+  <si>
+    <t>Bột Tian Qi Shar Dan</t>
+  </si>
+  <si>
+    <t>Jiuzhuan Xiongshewan</t>
+  </si>
+  <si>
+    <t>Thuốc Vô Thường</t>
+  </si>
+  <si>
+    <t>thuốc Zhenxinqi</t>
+  </si>
+  <si>
+    <t>Thuốc may mắn Shengsheng</t>
+  </si>
+  <si>
+    <t>Viên thuốc cứu mạng của Thiên Vương</t>
+  </si>
+  <si>
+    <t>Thuốc Bảo Kê</t>
+  </si>
+  <si>
+    <t>Thuốc giải độc Coptidis</t>
+  </si>
+  <si>
+    <t>Viên Thiên Tâm Jiedu</t>
+  </si>
+  <si>
+    <t>Thuốc mỡ Huiyang Wulong</t>
+  </si>
+  <si>
+    <t>Ngưu Hoàng Tuyết Đan</t>
+  </si>
+  <si>
+    <t>Lưu Dương Chính Kỳ Đan</t>
+  </si>
+  <si>
+    <t>Chúc Thanh Băng Thiền</t>
+  </si>
+  <si>
+    <t>Fu Ling Shou Wu Wan</t>
+  </si>
+  <si>
+    <t>Nấm linh chi thiên niên kỷ</t>
+  </si>
+  <si>
+    <t>túi mật rắn</t>
+  </si>
+  <si>
+    <t>Rượu mật ong Wubaohua</t>
+  </si>
+  <si>
+    <t>Cháo Laba</t>
+  </si>
+  <si>
+    <t>Đào phẳng lớn</t>
+  </si>
+  <si>
+    <t>Nhân sâm thiên niên kỷ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoa sen tuyết Thiên Sơn</t>
+  </si>
+  <si>
+    <t>Thuốc Tongxi Dilong</t>
+  </si>
+  <si>
+    <t>Tằm băng thiên niên kỷ</t>
+  </si>
+  <si>
+    <t>Ngao đỏ Manggu</t>
+  </si>
+  <si>
+    <t>Cuốn sách bí mật Zixia</t>
+  </si>
+  <si>
+    <t>Công suất không pha nhỏ</t>
+  </si>
+  <si>
+    <t>Mười tám con búp bê đất sét</t>
+  </si>
+  <si>
+    <t>Thẩm Triệu Cảnh</t>
+  </si>
+  <si>
+    <t>Yi Jin Jing</t>
+  </si>
+  <si>
+    <t>Kinh Tẩy Tủy</t>
+  </si>
+  <si>
+    <t>Phương pháp Tiyunzongxin</t>
+  </si>
+  <si>
+    <t>sự thay đổi của Chúa</t>
+  </si>
+  <si>
+    <t>Lingbo Weibu</t>
+  </si>
+  <si>
+    <t>Kinh châm cứu và châm cứu</t>
+  </si>
+  <si>
+    <t>Hoa Đà Nại Triệu Tử</t>
+  </si>
+  <si>
+    <t>Sách y học Hu Qingniu</t>
+  </si>
+  <si>
+    <t>Bí mật của năm chất độc</t>
+  </si>
+  <si>
+    <t>Thuốc độc cổ điển</t>
+  </si>
+  <si>
+    <t>Vua y học</t>
+  </si>
+  <si>
+    <t>Cuốn sách nắm đấm sắt</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng quyền anh bảy chấn thương</t>
+  </si>
+  <si>
+    <t>Cây cọ Thiên Sơn Lưu Dương</t>
+  </si>
+  <si>
+    <t>Huyền Minh Thần Chưởng</t>
+  </si>
+  <si>
+    <t>Kinh Thái Cực Quyền</t>
+  </si>
+  <si>
+    <t>Rồng Voi Bát nhã Kung Fu</t>
+  </si>
+  <si>
+    <t>Thái Xuân Kinh</t>
+  </si>
+  <si>
+    <t>Lòng bàn tay xuất thần</t>
+  </si>
+  <si>
+    <t>Mười tám chiêu hàng rồng</t>
+  </si>
+  <si>
+    <t>Sức mạnh ma thuật Beiming</t>
+  </si>
+  <si>
+    <t>Phương pháp thu hút sao</t>
+  </si>
+  <si>
+    <t>Chân máy vua gỗ thiêng</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng thần kiếm lục kinh</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng kiếm Songfeng</t>
+  </si>
+  <si>
+    <t>Mười tám món Thái Sơn</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm Huifeng Luoyan</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng kiếm bảy sao</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Liangyi</t>
+  </si>
+  <si>
+    <t>Bí mật rắn vàng</t>
+  </si>
+  <si>
+    <t>Ngọc Nữ Su Xin Kiếm Kỹ</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Miêu</t>
+  </si>
+  <si>
+    <t>Kiếm thuật Thái cực quyền</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng kiếm Bồ Đề Đạt Ma</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm sắt đen</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng kiếm để xua đuổi tà ma</t>
+  </si>
+  <si>
+    <t>Độc Cô Cửu Kiếm</t>
+  </si>
+  <si>
+    <t>Con dao máu cổ điển</t>
+  </si>
+  <si>
+    <t>Kỹ thuật dùng dao lửa</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm chống Liangyi</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm gió mạnh</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm của gia đình Hu</t>
+  </si>
+  <si>
+    <t>Kỹ thuật dùng dao sấm sét</t>
+  </si>
+  <si>
+    <t>Kỹ thuật roi rồng độc</t>
+  </si>
+  <si>
+    <t>Phương pháp roi Hoàng Sa Vạn Lý</t>
+  </si>
+  <si>
+    <t>Mưa hoa khắp trời</t>
+  </si>
+  <si>
+    <t>Bí mật sấm sét</t>
+  </si>
+  <si>
+    <t>sự bóng gió</t>
+  </si>
+  <si>
+    <t>Nghệ thuật đấu tranh giữa trái và phải</t>
+  </si>
+  <si>
+    <t>Sự chuyển dịch vĩ đại của vũ trụ</t>
+  </si>
+  <si>
+    <t>Bộ sưu tập hướng dương</t>
+  </si>
+  <si>
+    <t>Cẩm nang Cửu Âm</t>
+  </si>
+  <si>
+    <t>Kinh Cửu Dương</t>
+  </si>
+  <si>
+    <t>đá châu chấu</t>
+  </si>
+  <si>
+    <t>phi tiêu tiền</t>
+  </si>
+  <si>
+    <t>Ném dao</t>
+  </si>
+  <si>
+    <t>hạt giống bồ đề</t>
+  </si>
+  <si>
+    <t>nón rắn vàng</t>
+  </si>
+  <si>
+    <t>Sấm sét</t>
+  </si>
+  <si>
+    <t>Trichosanthes</t>
+  </si>
+  <si>
+    <t>kim ong ngọc</t>
+  </si>
+  <si>
+    <t>Cây kim bạc linh hồn băng giá</t>
+  </si>
+  <si>
+    <t>Kim máu đen</t>
+  </si>
+  <si>
+    <t>Thanh kiếm sắt đen</t>
+  </si>
+  <si>
+    <t>Thanh kiếm của quý ông</t>
+  </si>
+  <si>
+    <t>thanh kiếm phụ nữ</t>
+  </si>
+  <si>
+    <t>Thanh kiếm Yitian</t>
+  </si>
+  <si>
+    <t>thanh kiếm rắn vàng</t>
+  </si>
+  <si>
+    <t>Thanh kiếm Ninh Bi</t>
+  </si>
+  <si>
+    <t>thanh kiếm rồng trắng</t>
+  </si>
+  <si>
+    <t>Bạch Hồng Kiến</t>
+  </si>
+  <si>
+    <t>Chu Công Kiến</t>
+  </si>
+  <si>
+    <t>con dao máu</t>
+  </si>
+  <si>
+    <t>Thanh kiếm trăng lạnh</t>
+  </si>
+  <si>
+    <t>Dao diệt rồng</t>
+  </si>
+  <si>
+    <t>dao thơm làn sóng xanh</t>
+  </si>
+  <si>
+    <t>Con dao điên cuồng Thunderbolt</t>
+  </si>
+  <si>
+    <t>Áo Giáp Nhím Mềm</t>
+  </si>
+  <si>
+    <t>áo lụa vàng</t>
+  </si>
+  <si>
+    <t>quần áo tằm đen</t>
+  </si>
+  <si>
+    <t>Áo giáp da cá sấu</t>
+  </si>
+  <si>
+    <t>Thạch mật ong Ngọc</t>
+  </si>
+  <si>
+    <t>mã thông báo gỗ đen</t>
+  </si>
+  <si>
+    <t>Rượu lê</t>
+  </si>
+  <si>
+    <t>Cúp ngọc lục bảo</t>
+  </si>
+  <si>
+    <t>Nhẫn bảy báu vật</t>
+  </si>
+  <si>
+    <t>Hình ảnh vẻ đẹp thần tiên</t>
+  </si>
+  <si>
+    <t>Con dấu hoàng gia của Dayan</t>
+  </si>
+  <si>
+    <t>Sơ đồ dòng dõi của các hoàng đế Dayan</t>
+  </si>
+  <si>
+    <t>Lệnh thưởng thiện và trừng phạt ác</t>
+  </si>
+  <si>
+    <t>Hai trang kỹ năng dùng dao</t>
+  </si>
+  <si>
+    <t>Cỏ ruột gãy</t>
+  </si>
+  <si>
+    <t>Trang Vương Đao</t>
+  </si>
+  <si>
+    <t>Rượu lửa Xuân Bính</t>
+  </si>
+  <si>
+    <t>Thuốc giải độc mắt Miao Renfeng</t>
+  </si>
+  <si>
+    <t>cừu ngồi trên mông</t>
+  </si>
+  <si>
+    <t>thận bê</t>
+  </si>
+  <si>
+    <t>tai lợn</t>
+  </si>
+  <si>
+    <t>Thịt chân hươu</t>
+  </si>
+  <si>
+    <t>con thỏ</t>
+  </si>
+  <si>
+    <t>quyền trượng</t>
+  </si>
+  <si>
+    <t>Gaiden cáo bay</t>
+  </si>
+  <si>
+    <t>Cáo bay núi tuyết</t>
+  </si>
+  <si>
+    <t>Liên Thành Quyết</t>
+  </si>
+  <si>
+    <t>Á thần</t>
+  </si>
+  <si>
+    <t>Truyền thuyết về anh hùng xạ điêu</t>
+  </si>
+  <si>
+    <t>Ngựa trắng huýt sáo trong gió tây</t>
+  </si>
+  <si>
+    <t>Con nai và cái vạc</t>
+  </si>
+  <si>
+    <t>Người đánh kiếm</t>
+  </si>
+  <si>
+    <t>Sách kiếm và thù hận</t>
+  </si>
+  <si>
+    <t>Hạ Khắc Tinh</t>
+  </si>
+  <si>
+    <t>Truyền thuyết về thiên đường và giết rồng</t>
+  </si>
+  <si>
+    <t>Ngọc Huyết Kiếm</t>
+  </si>
+  <si>
+    <t>Dao Nguyên Dương</t>
+  </si>
+  <si>
+    <t>Thu Hải Đường Qixin</t>
+  </si>
+  <si>
+    <t>Kinh Qur'an</t>
+  </si>
+  <si>
+    <t>Những bài thơ Đường chọn lọc</t>
+  </si>
+  <si>
+    <t>chìa khóa đỏ</t>
+  </si>
+  <si>
+    <t>chìa khóa màu cam</t>
+  </si>
+  <si>
+    <t>chìa khóa màu vàng</t>
+  </si>
+  <si>
+    <t>chìa khóa xanh</t>
+  </si>
+  <si>
+    <t>chìa khóa màu tím</t>
+  </si>
+  <si>
+    <t>chìa khóa sắt</t>
+  </si>
+  <si>
+    <t>chìa khóa đồng</t>
+  </si>
+  <si>
+    <t>chìa khóa bạc</t>
+  </si>
+  <si>
+    <t>chìa khóa vàng</t>
+  </si>
+  <si>
+    <t>Dược liệu</t>
+  </si>
+  <si>
+    <t>diêm tiêu</t>
+  </si>
+  <si>
+    <t>một bông hoa màu xanh</t>
+  </si>
+  <si>
+    <t>Bạc</t>
+  </si>
+  <si>
+    <t>Bản đồ kho báu vua Trang</t>
+  </si>
+  <si>
+    <t>Ai có thể nghe được sáo ngọc?</t>
+  </si>
+  <si>
+    <t>Âm nhạc Quảng Lăng Tam Tần</t>
+  </si>
+  <si>
+    <t>Lưu Trọng Phúc nôn ra máu điểm cờ vua</t>
+  </si>
+  <si>
+    <t>Thông điệp chu đáo của Zhang Xu</t>
+  </si>
+  <si>
+    <t>Bản đồ du lịch Tây Sơn</t>
+  </si>
+  <si>
+    <t>Một nắm tóc vàng</t>
+  </si>
+  <si>
+    <t>la bàn</t>
+  </si>
+  <si>
+    <t>Thư của người anh em lãnh đạo</t>
+  </si>
+  <si>
+    <t>khăn tay</t>
+  </si>
+  <si>
+    <t>Những lời cuối cùng của Lin Zhennan</t>
+  </si>
+  <si>
+    <t>trái cây trí tuệ</t>
+  </si>
+  <si>
+    <t>Nguyên Đạo</t>
+  </si>
+  <si>
+    <t>Dương Đạo</t>
+  </si>
+  <si>
+    <t>bài viết wulin</t>
+  </si>
+  <si>
+    <t>Lệnh lửa sắt Mingjiao</t>
+  </si>
+  <si>
+    <t>phía trước</t>
+  </si>
+  <si>
+    <t>Thanh kiếm Zhenwu</t>
+  </si>
+  <si>
+    <t>Lời mời rửa tay trong chậu vàng</t>
+  </si>
+  <si>
+    <t>dao đốt</t>
+  </si>
+  <si>
+    <t>xẻng</t>
+  </si>
+  <si>
+    <t>trầu cau</t>
+  </si>
+  <si>
+    <t>Áo khoác da</t>
+  </si>
+  <si>
+    <t>vô ích</t>
+  </si>
+  <si>
+    <t>cuối cùng</t>
+  </si>
+  <si>
+    <t>Thức uống năng động giúp bạn nhanh chóng bổ sung năng lượng</t>
+  </si>
+  <si>
+    <t>Chiết xuất từ y học cổ truyền Trung Quốc, nó có thể phục hồi một số sức mạnh thể chất</t>
+  </si>
+  <si>
+    <t>Hãy uống nhanh khi đời bạn yếu đuối</t>
+  </si>
+  <si>
+    <t>Thuốc chữa lành phục hồi một chút cuộc sống</t>
+  </si>
+  <si>
+    <t>Thuộc sở hữu của Kongtong Sect, có thể khôi phục một số sự sống</t>
+  </si>
+  <si>
+    <t>Thuộc sở hữu của Giáo phái Hoa Sơn, nó có thể khôi phục một số sự sống</t>
+  </si>
+  <si>
+    <t>Thuộc sở hữu của Wu-Tang Clan, có thể phục hồi một số sức khỏe</t>
+  </si>
+  <si>
+    <t>Thần dược của Thiếu Lâm Tự có thể phục hồi sự sống</t>
+  </si>
+  <si>
+    <t>Thuộc sở hữu của Giáo phái Hengshan và có thể phục hồi nhiều mạng sống</t>
+  </si>
+  <si>
+    <t>Thuốc tiên chữa bệnh có thể bổ sung sự sống</t>
+  </si>
+  <si>
+    <t>Không sợ nội thương, bạn có thể dễ dàng nâng người lên sau khi sử dụng</t>
+  </si>
+  <si>
+    <t>Bổ sung tự nhiên có thể khôi phục một chút nội lực</t>
+  </si>
+  <si>
+    <t>Thuộc sở hữu của Hengshan Sect, nó có thể khôi phục một số nội lực</t>
+  </si>
+  <si>
+    <t>Tất cả đều ở Đảo Hoa Đào, có thể phục hồi nội lực và giải độc</t>
+  </si>
+  <si>
+    <t>Mọi thứ từ phái Toàn Chân đều có thể khôi phục nội lực</t>
+  </si>
+  <si>
+    <t>Được sản xuất trên Đảo Hoa Đào, nó có thể phục hồi rất nhiều năng lượng bên trong</t>
+  </si>
+  <si>
+    <t>Thuốc tiên chữa bệnh của Xiaoyao Pai có thể bổ sung năng lượng bên trong</t>
+  </si>
+  <si>
+    <t>Thuộc sở hữu của Đảo Đào Hoa, có thể phục hồi sự sống và nội lực</t>
+  </si>
+  <si>
+    <t>Được bào chế bởi các chuyên gia nổi tiếng giúp nhanh chóng phục hồi nội lực và sức sống</t>
+  </si>
+  <si>
+    <t>Thần dược chữa bệnh, có tác dụng thần kỳ khiến người chết sống lại</t>
+  </si>
+  <si>
+    <t>Thần dược có tác dụng làm người chết sống lại</t>
+  </si>
+  <si>
+    <t>Nếu bạn bị đau bụng, hãy sử dụng nếu bạn nghi ngờ bị ngộ độc.</t>
+  </si>
+  <si>
+    <t>Thuốc giải độc dân gian thông dụng được làm từ cây Coptis chinensis</t>
+  </si>
+  <si>
+    <t>Thuốc giải độc do Võ Đang Tộc sản xuất</t>
+  </si>
+  <si>
+    <t>Toàn bộ Khổng Đồng Tông đều có thể giải độc</t>
+  </si>
+  <si>
+    <t>Công thức thuốc tiên giải độc bí mật của Hu Qingniu</t>
+  </si>
+  <si>
+    <t>Thuộc sở hữu của Thiếu Lâm Tự, có thể chữa được chất độc lạ</t>
+  </si>
+  <si>
+    <t>Được sản xuất ở vùng núi tuyết, nó có thể hấp thụ nhiều lần các chất có độc tính cao</t>
+  </si>
+  <si>
+    <t>Thần dược nghìn năm có thể tăng giá trị sống tối đa</t>
+  </si>
+  <si>
+    <t>Những chất bổ sung quý giá có thể làm tăng giá trị cuộc sống tối đa</t>
+  </si>
+  <si>
+    <t>Sự dũng cảm của rắn độc có thể tăng nội lực tối đa</t>
+  </si>
+  <si>
+    <t>Được chế tạo từ năm chất độc để tăng nội lực tối đa</t>
+  </si>
+  <si>
+    <t>Được làm từ các loại hoa và thực vật quý hiếm, nó có thể tăng sức mạnh bên trong tối đa</t>
+  </si>
+  <si>
+    <t>Trái cây kỳ lạ quý giá, có thể tăng sức mạnh bên trong tối đa</t>
+  </si>
+  <si>
+    <t>Một thứ ngàn năm làm tăng giá trị tối đa của sự sống và nội năng.</t>
+  </si>
+  <si>
+    <t>Vật phẩm quý giá tăng tối đa giá trị sinh mệnh và nội năng</t>
+  </si>
+  <si>
+    <t>Được làm từ động vật kỳ lạ từ các vùng phía Tây, nó miễn nhiễm với mọi chất độc sau khi dùng.</t>
+  </si>
+  <si>
+    <t>Nó cực kỳ độc hại và có thể tăng cường sức mạnh của người luyện độc rất nhiều</t>
+  </si>
+  <si>
+    <t>Vua của mọi chất độc, sau khi uống vào, mọi chất độc sẽ không xâm chiếm</t>
+  </si>
+  <si>
+    <t>Phương pháp rèn luyện nội lực của phái Hoa Sơn</t>
+  </si>
+  <si>
+    <t>Nội kỹ và kỹ thuật tinh thần của Giáo phái Tiêu Dao</t>
+  </si>
+  <si>
+    <t>Kỷ lục về kỹ năng ma thuật của La Hán Thiếu Lâm trong việc khuất phục ma quỷ bằng tượng đất sét</t>
+  </si>
+  <si>
+    <t>Bí quyết rèn luyện nội lực</t>
+  </si>
+  <si>
+    <t>Phương pháp rèn luyện nội lực tối thượng của Thiếu Lâm Tự</t>
+  </si>
+  <si>
+    <t>Cẩm nang kỹ năng nội bộ bị mất</t>
+  </si>
+  <si>
+    <t>Phương pháp luyện tập tinh thần của môn phái Võ Đang</t>
+  </si>
+  <si>
+    <t>Bí quyết võ thuật để tăng khả năng chức năng ánh sáng</t>
+  </si>
+  <si>
+    <t>Những kỹ năng độc đáo của giáo phái Xiaoyao có thể tăng cường khả năng hoạt động của ánh sáng</t>
+  </si>
+  <si>
+    <t>Sách y học bàn về các huyệt và kinh lạc</t>
+  </si>
+  <si>
+    <t>Hướng dẫn y tế</t>
+  </si>
+  <si>
+    <t>Ghi chép về Tinh hoa Y thuật của Thung lũng Bướm Y bất tử</t>
+  </si>
+  <si>
+    <t>Sách bí mật của Ngũ Độc Giáo, ghi chép các phương pháp sử dụng và giải độc</t>
+  </si>
+  <si>
+    <t>Hướng dẫn về chất độc được viết bởi Nangu, Vua bất tử độc</t>
+  </si>
+  <si>
+    <t>Công việc cả đời của Vua Thuốc Độc Tay</t>
+  </si>
+  <si>
+    <t>Những kỹ năng nổi tiếng của Iron Palm Clan</t>
+  </si>
+  <si>
+    <t>Kỹ thuật đấm bốc độc đáo của trường Kongtong</t>
+  </si>
+  <si>
+    <t>Những mánh khóe trong kỹ thuật cọ của Giáo phái Tiêu Diêu</t>
+  </si>
+  <si>
+    <t>Những bí mật võ thuật đã thất lạc từ lâu</t>
+  </si>
+  <si>
+    <t>Kỹ năng độc đáo mới của Võ Đang phái có thể di chuyển một ngàn bảng chỉ với bốn ounce</t>
+  </si>
+  <si>
+    <t>Hộ Pháp Tối Thượng của Mật Tông</t>
+  </si>
+  <si>
+    <t>Những môn võ bí ẩn không ai giải thích được</t>
+  </si>
+  <si>
+    <t>Kỹ thuật cọ mạnh mẽ được tạo ra bởi Yang Guo</t>
+  </si>
+  <si>
+    <t>Kho báu của tộc ăn xin</t>
+  </si>
+  <si>
+    <t>Kỹ năng độc đáo của giáo phái Xiaoyao, hấp thụ năng lượng bên trong của mọi người và biến nó thành công dụng của chính mình</t>
+  </si>
+  <si>
+    <t>Có thể hấp thụ năng lượng bên trong của kẻ thù và biến nó thành công dụng của riêng mình</t>
+  </si>
+  <si>
+    <t>Vật được thủ lĩnh Tinh Tú Hải dùng để luyện hóa công</t>
+  </si>
+  <si>
+    <t>Bí kỹ siêu kiếm khí của gia tộc Dali Duẩn</t>
+  </si>
+  <si>
+    <t>Kiếm thuật ở Thanh Thành, Tứ Xuyên</t>
+  </si>
+  <si>
+    <t>Kiếm thuật sâu sắc của trường phái Taishan</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiếm luôn thay đổi của giáo phái Hengshan</t>
+  </si>
+  <si>
+    <t>Vương Trùng Dương nhận ra kiếm kỹ của Bắc Đẩu</t>
+  </si>
+  <si>
+    <t>Kỹ thuật độc đáo của trường Kunlun</t>
+  </si>
+  <si>
+    <t>Kiếm kỹ mà Golden Snake Master nhận ra khi quan sát rắn</t>
+  </si>
+  <si>
+    <t>Kiếm thuật ánh sáng của Tomb Sect</t>
+  </si>
+  <si>
+    <t>Kiếm thuật gia đình Miao Renfeng</t>
+  </si>
+  <si>
+    <t>Kiếm pháp mới của Trương Tam Phong</t>
+  </si>
+  <si>
+    <t>Một trong bảy mươi hai kỹ năng độc đáo của Thiếu Lâm</t>
+  </si>
+  <si>
+    <t>Dương Quá nhận ra cuốn sách bí mật do quỷ kiếm để lại</t>
+  </si>
+  <si>
+    <t>Kiếm pháp có sức tàn phá và độc ác đến mức người luyện tập sẽ không có con cháu.</t>
+  </si>
+  <si>
+    <t>Kiếm thuật sâu sắc được tạo ra bởi Dugu Qiubai</t>
+  </si>
+  <si>
+    <t>Có thể luyện tập kỹ năng dùng dao máu</t>
+  </si>
+  <si>
+    <t>Kiếm pháp độc đáo của chùa Đại Luân ở Tây Vực</t>
+  </si>
+  <si>
+    <t>Hoa Sơn Võ Thuật Kiếm Kỹ</t>
+  </si>
+  <si>
+    <t>Kỹ thuật dùng kiếm cực nhanh</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng kiếm gia đình Hu Yidao</t>
+  </si>
+  <si>
+    <t>Điểm kiếm trong ba kỹ năng độc đáo của Pili</t>
+  </si>
+  <si>
+    <t>Nhẹ nhàng và nhanh nhẹn, kỹ thuật quất roi luôn thay đổi</t>
+  </si>
+  <si>
+    <t>Kỹ thuật roi được truyền đến Tây Vực</t>
+  </si>
+  <si>
+    <t>Tăng khả năng vũ khí ẩn</t>
+  </si>
+  <si>
+    <t>Bí mật vũ khí bí mật trong ba bí mật của Pili</t>
+  </si>
+  <si>
+    <t>Bí mật vũ khí bí mật của Ngũ Độc Giáo</t>
+  </si>
+  <si>
+    <t>Sau khi luyện tập, bạn có thể tấn công hai lần</t>
+  </si>
+  <si>
+    <t>Sách Mingjiao, có thể tăng khả năng phòng thủ sau khi luyện tập</t>
+  </si>
+  <si>
+    <t>Phương pháp rèn luyện nội lực tối thượng của Đạo giáo</t>
+  </si>
+  <si>
+    <t>Cẩm nang võ thuật đỉnh cao</t>
+  </si>
+  <si>
+    <t>Vũ khí giấu kín thông thường</t>
+  </si>
+  <si>
+    <t>Vũ khí ẩn độc đáo của Golden Snake Man</t>
+  </si>
+  <si>
+    <t>Vũ khí tiềm ẩn bùng nổ trong ba Pili tối thượng</t>
+  </si>
+  <si>
+    <t>Vũ khí ẩn độc</t>
+  </si>
+  <si>
+    <t>Vũ khí ẩn giấu của Tomb Sect, chứa nọc ong</t>
+  </si>
+  <si>
+    <t>Vũ khí ẩn giấu của Tomb Sect chứa chất cực độc</t>
+  </si>
+  <si>
+    <t>Vũ khí ẩn độc thuộc sở hữu của Sun and Moon God Sect</t>
+  </si>
+  <si>
+    <t>Thanh kiếm nặng làm bằng sắt đen</t>
+  </si>
+  <si>
+    <t>Thích hợp cho kiếm sĩ, thích hợp cho kiếm thuật nhẹ</t>
+  </si>
+  <si>
+    <t>Một thanh kiếm làm bằng sắt đen, một báu vật võ thuật quý hiếm</t>
+  </si>
+  <si>
+    <t>Vũ khí phụ của Golden Snake Man</t>
+  </si>
+  <si>
+    <t>Thích hợp cho kiếm sĩ</t>
+  </si>
+  <si>
+    <t>Phù hợp với các kiếm sĩ, đặc biệt là có kỹ năng dùng dao máu</t>
+  </si>
+  <si>
+    <t>Vua võ thuật tối cao, chém rồng bằng thanh kiếm quý</t>
+  </si>
+  <si>
+    <t>Thanh kiếm bí ẩn của nhân vật huyền thoại</t>
+  </si>
+  <si>
+    <t>Đầy ngạnh, có thể tăng sức tấn công và phòng thủ</t>
+  </si>
+  <si>
+    <t>Có thể tăng khả năng phòng thủ</t>
+  </si>
+  <si>
+    <t>Được làm bằng da cá sấu để tăng khả năng phòng thủ</t>
+  </si>
+  <si>
+    <t>Là vật liệu được những người nuôi ong yêu thích, có khả năng thu hút đàn ong</t>
+  </si>
+  <si>
+    <t>Dấu hiệu của lối đi vách đá Blackwood</t>
+  </si>
+  <si>
+    <t>Rượu vang nổi tiếng Hàng Châu</t>
+  </si>
+  <si>
+    <t>Hương vị rượu lê sẽ ngon hơn nếu bạn uống cùng cốc này</t>
+  </si>
+  <si>
+    <t>Mã thông báo của người đứng đầu Giáo phái Xiaoyao</t>
+  </si>
+  <si>
+    <t>chân dung người phụ nữ</t>
+  </si>
+  <si>
+    <t>Ngọc ấn của triều đại Yan</t>
+  </si>
+  <si>
+    <t>Bảng tên các vị hoàng đế nhà Yên</t>
+  </si>
+  <si>
+    <t>Một biểu tượng mời đến Đảo Hiệp sĩ</t>
+  </si>
+  <si>
+    <t>Nghi ngờ là một trang bị thiếu trong sách hướng dẫn sử dụng kiếm</t>
+  </si>
+  <si>
+    <t>Cây mọc cạnh hoa yêu</t>
+  </si>
+  <si>
+    <t>Vũ khí phụ của vua Trang</t>
+  </si>
+  <si>
+    <t>Có thể hóa giải chất độc của âm dương</t>
+  </si>
+  <si>
+    <t>Có thể chữa được chất độc do bột cỏ vỡ ruột gây ra</t>
+  </si>
+  <si>
+    <t>một trong những thành phần của thực phẩm</t>
+  </si>
+  <si>
+    <t>Dấu hiệu của thủ lĩnh võ thuật</t>
+  </si>
+  <si>
+    <t>một cuốn tiểu thuyết</t>
+  </si>
+  <si>
+    <t>Chất này cực độc sau khi được tinh chế, độc nhất thế giới.</t>
+  </si>
+  <si>
+    <t>sách thánh Hồi giáo</t>
+  </si>
+  <si>
+    <t>Ba trăm bài thơ Đường người thường có thể hiểu được</t>
+  </si>
+  <si>
+    <t>Chìa khóa được trao bởi Hei Baizi, chủ sở hữu thứ hai của Làng Mai</t>
+  </si>
+  <si>
+    <t>Chiếc chìa khóa được nhà sư của chùa Dairinji mang theo</t>
+  </si>
+  <si>
+    <t>Chìa khóa được đưa bởi Kong Bala</t>
+  </si>
+  <si>
+    <t>Chiếc chìa khóa bí ẩn được Kong Bala trao tặng</t>
+  </si>
+  <si>
+    <t>Chìa khóa mà Hoa Sơn phái có được</t>
+  </si>
+  <si>
+    <t>Chìa khóa được Mộ Dung Phục trao</t>
+  </si>
+  <si>
+    <t>Chìa khóa bí ẩn</t>
+  </si>
+  <si>
+    <t>Nhiều loại dược liệu Trung Quốc cần thiết để làm thuốc tiên</t>
+  </si>
+  <si>
+    <t>Có thể chế tạo thành thuốc súng, cần thiết để tạo ra tiếng sét</t>
+  </si>
+  <si>
+    <t>Hoa màu xanh có hình dáng kỳ lạ với hương thơm tinh tế</t>
+  </si>
+  <si>
+    <t>Đó là một điều rất hữu ích, nó thậm chí có thể khiến mọi người đi lại.</t>
+  </si>
+  <si>
+    <t>Dưới đỉnh Wubi, tọa độ (64, 51)</t>
+  </si>
+  <si>
+    <t>một món ngon</t>
+  </si>
+  <si>
+    <t>Những bài hát nổi tiếng đã thất lạc của Ji Kang</t>
+  </si>
+  <si>
+    <t>Kỷ lục cờ vua Lưu Trung Phúc đánh bại bà già quê mùa</t>
+  </si>
+  <si>
+    <t>Tác phẩm đích thực của Zhang Xu, một nhà thư pháp nổi tiếng thời nhà Đường</t>
+  </si>
+  <si>
+    <t>Một kiệt tác tinh xảo của Fan Zhongli thời Bắc Tống</t>
+  </si>
+  <si>
+    <t>Mái tóc của Xie Xun, Vua sư tử Golden Retriever</t>
+  </si>
+  <si>
+    <t>Có thể hiển thị tọa độ hiện tại và vị trí của tàu</t>
+  </si>
+  <si>
+    <t>Mật thư của Wulin, nội dung cực kỳ quan trọng</t>
+  </si>
+  <si>
+    <t>Chiếc khăn tay dệt hình con vịt</t>
+  </si>
+  <si>
+    <t>Bức thư do Lin Zhennan của Cục Fuwei để lại trước khi qua đời</t>
+  </si>
+  <si>
+    <t>Người ta nói rằng sau khi sử dụng, nó có thể tăng cường trí thông minh.</t>
+  </si>
+  <si>
+    <t>Người ta nói rằng có một bí mật bất khả chiến bại trên thế giới.</t>
+  </si>
+  <si>
+    <t>Xin hãy mang bức thư này đến Hoa Sơn để tham dự đại hội võ thuật</t>
+  </si>
+  <si>
+    <t>Một mã thông báo trong số nhân sự cấp cao Mingjiao</t>
+  </si>
+  <si>
+    <t>Đầu của Cheng Kun trên vật phẩm</t>
+  </si>
+  <si>
+    <t>Thanh kiếm áp chế của Võ Đang phái</t>
+  </si>
+  <si>
+    <t>Mời đến Hằng Sơn giáo đến quan sát buổi lễ</t>
+  </si>
+  <si>
+    <t>rượu cay</t>
+  </si>
+  <si>
+    <t>Có thể dùng để đào đồ vật</t>
+  </si>
+  <si>
+    <t>Làm mới tâm trí và cải thiện sức mạnh thể chất</t>
+  </si>
+  <si>
+    <t>“Anh em” thường xuyên mặc đồ vì phòng thủ chắc chắn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2121,7 +2112,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2471,25 +2462,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX4" sqref="AX4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="50" max="50" width="28.36328125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="28.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" s="7" t="s">
-        <v>640</v>
+        <v>273</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>639</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2641,155 +2632,155 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50">
       <c r="A3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>642</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>642</v>
+        <v>275</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>642</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2935,18 +2926,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>474</v>
       </c>
       <c r="E5" s="2">
         <v>-1</v>
@@ -3085,18 +3076,18 @@
       </c>
       <c r="AX5" s="5"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>475</v>
       </c>
       <c r="E6" s="2">
         <v>-1</v>
@@ -3235,18 +3226,18 @@
       </c>
       <c r="AX6" s="5"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>476</v>
       </c>
       <c r="E7" s="2">
         <v>-1</v>
@@ -3385,18 +3376,18 @@
       </c>
       <c r="AX7" s="5"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>477</v>
       </c>
       <c r="E8" s="2">
         <v>-1</v>
@@ -3535,18 +3526,18 @@
       </c>
       <c r="AX8" s="5"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
       <c r="E9" s="2">
         <v>-1</v>
@@ -3685,18 +3676,18 @@
       </c>
       <c r="AX9" s="5"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>479</v>
       </c>
       <c r="E10" s="2">
         <v>-1</v>
@@ -3835,18 +3826,18 @@
       </c>
       <c r="AX10" s="5"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>480</v>
       </c>
       <c r="E11" s="2">
         <v>-1</v>
@@ -3985,18 +3976,18 @@
       </c>
       <c r="AX11" s="5"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>481</v>
       </c>
       <c r="E12" s="2">
         <v>-1</v>
@@ -4135,18 +4126,18 @@
       </c>
       <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>482</v>
       </c>
       <c r="E13" s="2">
         <v>-1</v>
@@ -4285,18 +4276,18 @@
       </c>
       <c r="AX13" s="5"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>483</v>
       </c>
       <c r="E14" s="2">
         <v>-1</v>
@@ -4435,18 +4426,18 @@
       </c>
       <c r="AX14" s="5"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>484</v>
       </c>
       <c r="E15" s="2">
         <v>-1</v>
@@ -4585,18 +4576,18 @@
       </c>
       <c r="AX15" s="5"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>637</v>
+        <v>287</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>485</v>
       </c>
       <c r="E16" s="2">
         <v>-1</v>
@@ -4735,18 +4726,18 @@
       </c>
       <c r="AX16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>486</v>
       </c>
       <c r="E17" s="2">
         <v>-1</v>
@@ -4885,18 +4876,18 @@
       </c>
       <c r="AX17" s="5"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>487</v>
       </c>
       <c r="E18" s="2">
         <v>-1</v>
@@ -5035,18 +5026,18 @@
       </c>
       <c r="AX18" s="5"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>488</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
@@ -5185,18 +5176,18 @@
       </c>
       <c r="AX19" s="5"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>489</v>
       </c>
       <c r="E20" s="2">
         <v>-1</v>
@@ -5335,18 +5326,18 @@
       </c>
       <c r="AX20" s="5"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>490</v>
       </c>
       <c r="E21" s="2">
         <v>-1</v>
@@ -5485,18 +5476,18 @@
       </c>
       <c r="AX21" s="5"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>491</v>
       </c>
       <c r="E22" s="2">
         <v>-1</v>
@@ -5635,18 +5626,18 @@
       </c>
       <c r="AX22" s="5"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>492</v>
       </c>
       <c r="E23" s="2">
         <v>-1</v>
@@ -5785,18 +5776,18 @@
       </c>
       <c r="AX23" s="5"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="E24" s="2">
         <v>-1</v>
@@ -5935,18 +5926,18 @@
       </c>
       <c r="AX24" s="5"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>494</v>
       </c>
       <c r="E25" s="2">
         <v>-1</v>
@@ -6085,18 +6076,18 @@
       </c>
       <c r="AX25" s="5"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>160</v>
+        <v>495</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
@@ -6235,18 +6226,18 @@
       </c>
       <c r="AX26" s="5"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>163</v>
+        <v>496</v>
       </c>
       <c r="E27" s="2">
         <v>-1</v>
@@ -6385,18 +6376,18 @@
       </c>
       <c r="AX27" s="5"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>166</v>
+        <v>497</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
@@ -6535,18 +6526,18 @@
       </c>
       <c r="AX28" s="5"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>498</v>
       </c>
       <c r="E29" s="2">
         <v>-1</v>
@@ -6685,18 +6676,18 @@
       </c>
       <c r="AX29" s="5"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>499</v>
       </c>
       <c r="E30" s="2">
         <v>-1</v>
@@ -6835,18 +6826,18 @@
       </c>
       <c r="AX30" s="5"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50">
       <c r="A31" s="2">
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="E31" s="2">
         <v>-1</v>
@@ -6985,18 +6976,18 @@
       </c>
       <c r="AX31" s="5"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50">
       <c r="A32" s="2">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>178</v>
+        <v>501</v>
       </c>
       <c r="E32" s="2">
         <v>-1</v>
@@ -7135,18 +7126,18 @@
       </c>
       <c r="AX32" s="5"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>181</v>
+        <v>502</v>
       </c>
       <c r="E33" s="2">
         <v>-1</v>
@@ -7285,18 +7276,18 @@
       </c>
       <c r="AX33" s="5"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>503</v>
       </c>
       <c r="E34" s="2">
         <v>-1</v>
@@ -7435,18 +7426,18 @@
       </c>
       <c r="AX34" s="5"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50">
       <c r="A35" s="2">
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>187</v>
+        <v>504</v>
       </c>
       <c r="E35" s="2">
         <v>-1</v>
@@ -7585,18 +7576,18 @@
       </c>
       <c r="AX35" s="5"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50">
       <c r="A36" s="2">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="E36" s="2">
         <v>-1</v>
@@ -7735,18 +7726,18 @@
       </c>
       <c r="AX36" s="5"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50">
       <c r="A37" s="2">
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>193</v>
+        <v>506</v>
       </c>
       <c r="E37" s="2">
         <v>-1</v>
@@ -7885,18 +7876,18 @@
       </c>
       <c r="AX37" s="5"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50">
       <c r="A38" s="2">
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
+        <v>507</v>
       </c>
       <c r="E38" s="2">
         <v>-1</v>
@@ -8035,18 +8026,18 @@
       </c>
       <c r="AX38" s="5"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50">
       <c r="A39" s="2">
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>638</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>197</v>
+        <v>508</v>
       </c>
       <c r="E39" s="2">
         <v>-1</v>
@@ -8185,18 +8176,18 @@
       </c>
       <c r="AX39" s="5"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50">
       <c r="A40" s="2">
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>509</v>
       </c>
       <c r="E40" s="2">
         <v>-1</v>
@@ -8335,18 +8326,18 @@
       </c>
       <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50">
       <c r="A41" s="2">
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="E41" s="2">
         <v>-1</v>
@@ -8485,18 +8476,18 @@
       </c>
       <c r="AX41" s="5"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50">
       <c r="A42" s="2">
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>511</v>
       </c>
       <c r="E42" s="2">
         <v>-1</v>
@@ -8635,18 +8626,18 @@
       </c>
       <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50">
       <c r="A43" s="2">
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>512</v>
       </c>
       <c r="E43" s="2">
         <v>-1</v>
@@ -8785,18 +8776,18 @@
       </c>
       <c r="AX43" s="5"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50">
       <c r="A44" s="2">
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>211</v>
+        <v>513</v>
       </c>
       <c r="E44" s="2">
         <v>-1</v>
@@ -8935,18 +8926,18 @@
       </c>
       <c r="AX44" s="5"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50">
       <c r="A45" s="2">
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>213</v>
+        <v>514</v>
       </c>
       <c r="E45" s="2">
         <v>-1</v>
@@ -9085,18 +9076,18 @@
       </c>
       <c r="AX45" s="5"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50">
       <c r="A46" s="2">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>216</v>
+        <v>515</v>
       </c>
       <c r="E46" s="2">
         <v>-1</v>
@@ -9235,18 +9226,18 @@
       </c>
       <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50">
       <c r="A47" s="2">
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>219</v>
+        <v>516</v>
       </c>
       <c r="E47" s="2">
         <v>-1</v>
@@ -9385,18 +9376,18 @@
       </c>
       <c r="AX47" s="5"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50">
       <c r="A48" s="2">
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
+        <v>517</v>
       </c>
       <c r="E48" s="2">
         <v>-1</v>
@@ -9535,18 +9526,18 @@
       </c>
       <c r="AX48" s="5"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50">
       <c r="A49" s="2">
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>225</v>
+        <v>518</v>
       </c>
       <c r="E49" s="2">
         <v>-1</v>
@@ -9685,18 +9676,18 @@
       </c>
       <c r="AX49" s="5"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50">
       <c r="A50" s="2">
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>228</v>
+        <v>519</v>
       </c>
       <c r="E50" s="2">
         <v>-1</v>
@@ -9835,18 +9826,18 @@
       </c>
       <c r="AX50" s="5"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50">
       <c r="A51" s="2">
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>520</v>
       </c>
       <c r="E51" s="2">
         <v>-1</v>
@@ -9985,18 +9976,18 @@
       </c>
       <c r="AX51" s="5"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50">
       <c r="A52" s="2">
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>234</v>
+        <v>521</v>
       </c>
       <c r="E52" s="2">
         <v>-1</v>
@@ -10135,18 +10126,18 @@
       </c>
       <c r="AX52" s="5"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50">
       <c r="A53" s="2">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>235</v>
+        <v>324</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>237</v>
+        <v>522</v>
       </c>
       <c r="E53" s="2">
         <v>-1</v>
@@ -10284,21 +10275,21 @@
         <v>171</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50">
       <c r="A54" s="2">
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>241</v>
+        <v>523</v>
       </c>
       <c r="E54" s="2">
         <v>-1</v>
@@ -10436,21 +10427,21 @@
         <v>171</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50">
       <c r="A55" s="2">
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>245</v>
+        <v>524</v>
       </c>
       <c r="E55" s="2">
         <v>-1</v>
@@ -10588,21 +10579,21 @@
         <v>171</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50">
       <c r="A56" s="2">
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>249</v>
+        <v>525</v>
       </c>
       <c r="E56" s="2">
         <v>-1</v>
@@ -10740,21 +10731,21 @@
         <v>171</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>250</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50">
       <c r="A57" s="2">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>253</v>
+        <v>526</v>
       </c>
       <c r="E57" s="2">
         <v>-1</v>
@@ -10892,21 +10883,21 @@
         <v>171</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50">
       <c r="A58" s="2">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>257</v>
+        <v>527</v>
       </c>
       <c r="E58" s="2">
         <v>-1</v>
@@ -11044,21 +11035,21 @@
         <v>171</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50">
       <c r="A59" s="2">
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>261</v>
+        <v>528</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
@@ -11197,18 +11188,18 @@
       </c>
       <c r="AX59" s="5"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50">
       <c r="A60" s="2">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="E60" s="2">
         <v>6</v>
@@ -11347,18 +11338,18 @@
       </c>
       <c r="AX60" s="5"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50">
       <c r="A61" s="2">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>266</v>
+        <v>530</v>
       </c>
       <c r="E61" s="2">
         <v>15</v>
@@ -11497,18 +11488,18 @@
       </c>
       <c r="AX61" s="5"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50">
       <c r="A62" s="2">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>269</v>
+        <v>531</v>
       </c>
       <c r="E62" s="2">
         <v>16</v>
@@ -11647,18 +11638,18 @@
       </c>
       <c r="AX62" s="5"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50">
       <c r="A63" s="2">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>272</v>
+        <v>532</v>
       </c>
       <c r="E63" s="2">
         <v>20</v>
@@ -11797,18 +11788,18 @@
       </c>
       <c r="AX63" s="5"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50">
       <c r="A64" s="2">
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>275</v>
+        <v>533</v>
       </c>
       <c r="E64" s="2">
         <v>18</v>
@@ -11947,18 +11938,18 @@
       </c>
       <c r="AX64" s="5"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50">
       <c r="A65" s="2">
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>278</v>
+        <v>534</v>
       </c>
       <c r="E65" s="2">
         <v>23</v>
@@ -12097,18 +12088,18 @@
       </c>
       <c r="AX65" s="5"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50">
       <c r="A66" s="2">
         <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>281</v>
+        <v>535</v>
       </c>
       <c r="E66" s="2">
         <v>24</v>
@@ -12247,18 +12238,18 @@
       </c>
       <c r="AX66" s="5"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50">
       <c r="A67" s="2">
         <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>284</v>
+        <v>536</v>
       </c>
       <c r="E67" s="2">
         <v>25</v>
@@ -12397,18 +12388,18 @@
       </c>
       <c r="AX67" s="5"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50">
       <c r="A68" s="2">
         <v>63</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>286</v>
+        <v>161</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>287</v>
+        <v>537</v>
       </c>
       <c r="E68" s="2">
         <v>29</v>
@@ -12547,18 +12538,18 @@
       </c>
       <c r="AX68" s="5"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50">
       <c r="A69" s="2">
         <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>289</v>
+        <v>162</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>290</v>
+        <v>538</v>
       </c>
       <c r="E69" s="2">
         <v>28</v>
@@ -12697,18 +12688,18 @@
       </c>
       <c r="AX69" s="5"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50">
       <c r="A70" s="2">
         <v>65</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>293</v>
+        <v>539</v>
       </c>
       <c r="E70" s="2">
         <v>27</v>
@@ -12847,18 +12838,18 @@
       </c>
       <c r="AX70" s="5"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50">
       <c r="A71" s="2">
         <v>66</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>296</v>
+        <v>540</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -12997,18 +12988,18 @@
       </c>
       <c r="AX71" s="5"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50">
       <c r="A72" s="2">
         <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>299</v>
+        <v>541</v>
       </c>
       <c r="E72" s="2">
         <v>89</v>
@@ -13147,18 +13138,18 @@
       </c>
       <c r="AX72" s="5"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50">
       <c r="A73" s="2">
         <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>302</v>
+        <v>542</v>
       </c>
       <c r="E73" s="2">
         <v>45</v>
@@ -13297,18 +13288,18 @@
       </c>
       <c r="AX73" s="5"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50">
       <c r="A74" s="2">
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>304</v>
+        <v>543</v>
       </c>
       <c r="E74" s="2">
         <v>46</v>
@@ -13447,18 +13438,18 @@
       </c>
       <c r="AX74" s="5"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50">
       <c r="A75" s="2">
         <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>306</v>
+        <v>544</v>
       </c>
       <c r="E75" s="2">
         <v>53</v>
@@ -13597,18 +13588,18 @@
       </c>
       <c r="AX75" s="5"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50">
       <c r="A76" s="2">
         <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>309</v>
+        <v>545</v>
       </c>
       <c r="E76" s="2">
         <v>47</v>
@@ -13747,18 +13738,18 @@
       </c>
       <c r="AX76" s="5"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50">
       <c r="A77" s="2">
         <v>72</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>312</v>
+        <v>546</v>
       </c>
       <c r="E77" s="2">
         <v>54</v>
@@ -13897,18 +13888,18 @@
       </c>
       <c r="AX77" s="5"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50">
       <c r="A78" s="2">
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>315</v>
+        <v>547</v>
       </c>
       <c r="E78" s="2">
         <v>49</v>
@@ -14047,18 +14038,18 @@
       </c>
       <c r="AX78" s="5"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50">
       <c r="A79" s="2">
         <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="E79" s="2">
         <v>55</v>
@@ -14197,18 +14188,18 @@
       </c>
       <c r="AX79" s="5"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50">
       <c r="A80" s="2">
         <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>321</v>
+        <v>549</v>
       </c>
       <c r="E80" s="2">
         <v>58</v>
@@ -14347,18 +14338,18 @@
       </c>
       <c r="AX80" s="5"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50">
       <c r="A81" s="2">
         <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>324</v>
+        <v>550</v>
       </c>
       <c r="E81" s="2">
         <v>59</v>
@@ -14497,18 +14488,18 @@
       </c>
       <c r="AX81" s="5"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50">
       <c r="A82" s="2">
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>327</v>
+        <v>551</v>
       </c>
       <c r="E82" s="2">
         <v>57</v>
@@ -14647,18 +14638,18 @@
       </c>
       <c r="AX82" s="5"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50">
       <c r="A83" s="2">
         <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
       <c r="E83" s="2">
         <v>60</v>
@@ -14797,18 +14788,18 @@
       </c>
       <c r="AX83" s="5"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50">
       <c r="A84" s="2">
         <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>333</v>
+        <v>553</v>
       </c>
       <c r="E84" s="2">
         <v>61</v>
@@ -14947,18 +14938,18 @@
       </c>
       <c r="AX84" s="5"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50">
       <c r="A85" s="2">
         <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="E85" s="2">
         <v>63</v>
@@ -15097,18 +15088,18 @@
       </c>
       <c r="AX85" s="5"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50">
       <c r="A86" s="2">
         <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>338</v>
+        <v>177</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>339</v>
+        <v>555</v>
       </c>
       <c r="E86" s="2">
         <v>66</v>
@@ -15247,18 +15238,18 @@
       </c>
       <c r="AX86" s="5"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50">
       <c r="A87" s="2">
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>342</v>
+        <v>556</v>
       </c>
       <c r="E87" s="2">
         <v>65</v>
@@ -15397,18 +15388,18 @@
       </c>
       <c r="AX87" s="5"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50">
       <c r="A88" s="2">
         <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>345</v>
+        <v>557</v>
       </c>
       <c r="E88" s="2">
         <v>64</v>
@@ -15547,18 +15538,18 @@
       </c>
       <c r="AX88" s="5"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50">
       <c r="A89" s="2">
         <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>347</v>
+        <v>558</v>
       </c>
       <c r="E89" s="2">
         <v>67</v>
@@ -15697,18 +15688,18 @@
       </c>
       <c r="AX89" s="5"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50">
       <c r="A90" s="2">
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>350</v>
+        <v>559</v>
       </c>
       <c r="E90" s="2">
         <v>68</v>
@@ -15847,18 +15838,18 @@
       </c>
       <c r="AX90" s="5"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50">
       <c r="A91" s="2">
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>352</v>
+        <v>560</v>
       </c>
       <c r="E91" s="2">
         <v>77</v>
@@ -15997,18 +15988,18 @@
       </c>
       <c r="AX91" s="5"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50">
       <c r="A92" s="2">
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>354</v>
+        <v>181</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>355</v>
+        <v>561</v>
       </c>
       <c r="E92" s="2">
         <v>78</v>
@@ -16147,18 +16138,18 @@
       </c>
       <c r="AX92" s="5"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50">
       <c r="A93" s="2">
         <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>357</v>
+        <v>182</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>358</v>
+        <v>562</v>
       </c>
       <c r="E93" s="2">
         <v>-1</v>
@@ -16297,18 +16288,18 @@
       </c>
       <c r="AX93" s="5"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50">
       <c r="A94" s="2">
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>360</v>
+        <v>563</v>
       </c>
       <c r="E94" s="2">
         <v>-1</v>
@@ -16446,21 +16437,21 @@
         <v>172</v>
       </c>
       <c r="AX94" s="5" t="s">
-        <v>361</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50">
       <c r="A95" s="2">
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>364</v>
+        <v>564</v>
       </c>
       <c r="E95" s="2">
         <v>-1</v>
@@ -16599,18 +16590,18 @@
       </c>
       <c r="AX95" s="5"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50">
       <c r="A96" s="2">
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>366</v>
+        <v>185</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>367</v>
+        <v>565</v>
       </c>
       <c r="E96" s="2">
         <v>-1</v>
@@ -16749,7 +16740,7 @@
       </c>
       <c r="AX96" s="5"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -16757,10 +16748,10 @@
         <v>368</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>369</v>
+        <v>186</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>370</v>
+        <v>566</v>
       </c>
       <c r="E97" s="2">
         <v>-1</v>
@@ -16899,18 +16890,18 @@
       </c>
       <c r="AX97" s="5"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50">
       <c r="A98" s="2">
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>373</v>
+        <v>567</v>
       </c>
       <c r="E98" s="2">
         <v>-1</v>
@@ -17049,18 +17040,18 @@
       </c>
       <c r="AX98" s="5"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50">
       <c r="A99" s="2">
         <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>375</v>
+        <v>568</v>
       </c>
       <c r="E99" s="2">
         <v>-1</v>
@@ -17199,18 +17190,18 @@
       </c>
       <c r="AX99" s="5"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50">
       <c r="A100" s="2">
         <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>375</v>
+        <v>568</v>
       </c>
       <c r="E100" s="2">
         <v>92</v>
@@ -17349,18 +17340,18 @@
       </c>
       <c r="AX100" s="5"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50">
       <c r="A101" s="2">
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>378</v>
+        <v>188</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="E101" s="2">
         <v>-1</v>
@@ -17499,18 +17490,18 @@
       </c>
       <c r="AX101" s="5"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50">
       <c r="A102" s="2">
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>381</v>
+        <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="E102" s="2">
         <v>-1</v>
@@ -17649,18 +17640,18 @@
       </c>
       <c r="AX102" s="5"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50">
       <c r="A103" s="2">
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="E103" s="2">
         <v>-1</v>
@@ -17799,18 +17790,18 @@
       </c>
       <c r="AX103" s="5"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50">
       <c r="A104" s="2">
         <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="E104" s="2">
         <v>-1</v>
@@ -17949,18 +17940,18 @@
       </c>
       <c r="AX104" s="5"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50">
       <c r="A105" s="2">
         <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>387</v>
+        <v>570</v>
       </c>
       <c r="E105" s="2">
         <v>-1</v>
@@ -18099,18 +18090,18 @@
       </c>
       <c r="AX105" s="5"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50">
       <c r="A106" s="2">
         <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>389</v>
+        <v>571</v>
       </c>
       <c r="E106" s="2">
         <v>-1</v>
@@ -18249,18 +18240,18 @@
       </c>
       <c r="AX106" s="5"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50">
       <c r="A107" s="2">
         <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>391</v>
+        <v>572</v>
       </c>
       <c r="E107" s="2">
         <v>-1</v>
@@ -18399,18 +18390,18 @@
       </c>
       <c r="AX107" s="5"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50">
       <c r="A108" s="2">
         <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>393</v>
+        <v>192</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>394</v>
+        <v>573</v>
       </c>
       <c r="E108" s="2">
         <v>-1</v>
@@ -18549,18 +18540,18 @@
       </c>
       <c r="AX108" s="5"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50">
       <c r="A109" s="2">
         <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>397</v>
+        <v>574</v>
       </c>
       <c r="E109" s="2">
         <v>-1</v>
@@ -18699,18 +18690,18 @@
       </c>
       <c r="AX109" s="5"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50">
       <c r="A110" s="2">
         <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>399</v>
+        <v>194</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>400</v>
+        <v>575</v>
       </c>
       <c r="E110" s="2">
         <v>-1</v>
@@ -18849,18 +18840,18 @@
       </c>
       <c r="AX110" s="5"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50">
       <c r="A111" s="2">
         <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>402</v>
+        <v>576</v>
       </c>
       <c r="E111" s="2">
         <v>-1</v>
@@ -18999,18 +18990,18 @@
       </c>
       <c r="AX111" s="5"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50">
       <c r="A112" s="2">
         <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>404</v>
+        <v>195</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>405</v>
+        <v>577</v>
       </c>
       <c r="E112" s="2">
         <v>-1</v>
@@ -19149,18 +19140,18 @@
       </c>
       <c r="AX112" s="5"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50">
       <c r="A113" s="2">
         <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>407</v>
+        <v>196</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>405</v>
+        <v>577</v>
       </c>
       <c r="E113" s="2">
         <v>-1</v>
@@ -19299,18 +19290,18 @@
       </c>
       <c r="AX113" s="5"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50">
       <c r="A114" s="2">
         <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>410</v>
+        <v>578</v>
       </c>
       <c r="E114" s="2">
         <v>-1</v>
@@ -19449,18 +19440,18 @@
       </c>
       <c r="AX114" s="5"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50">
       <c r="A115" s="2">
         <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>412</v>
+        <v>579</v>
       </c>
       <c r="E115" s="2">
         <v>-1</v>
@@ -19599,18 +19590,18 @@
       </c>
       <c r="AX115" s="5"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50">
       <c r="A116" s="2">
         <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>414</v>
+        <v>198</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>415</v>
+        <v>580</v>
       </c>
       <c r="E116" s="2">
         <v>-1</v>
@@ -19749,18 +19740,18 @@
       </c>
       <c r="AX116" s="5"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50">
       <c r="A117" s="2">
         <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>417</v>
+        <v>199</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>415</v>
+        <v>580</v>
       </c>
       <c r="E117" s="2">
         <v>-1</v>
@@ -19899,18 +19890,18 @@
       </c>
       <c r="AX117" s="5"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50">
       <c r="A118" s="2">
         <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>415</v>
+        <v>580</v>
       </c>
       <c r="E118" s="2">
         <v>-1</v>
@@ -20049,18 +20040,18 @@
       </c>
       <c r="AX118" s="5"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50">
       <c r="A119" s="2">
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>415</v>
+        <v>580</v>
       </c>
       <c r="E119" s="2">
         <v>-1</v>
@@ -20199,18 +20190,18 @@
       </c>
       <c r="AX119" s="5"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50">
       <c r="A120" s="2">
         <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="E120" s="2">
         <v>-1</v>
@@ -20349,18 +20340,18 @@
       </c>
       <c r="AX120" s="5"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50">
       <c r="A121" s="2">
         <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>425</v>
+        <v>202</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>426</v>
+        <v>580</v>
       </c>
       <c r="E121" s="2">
         <v>-1</v>
@@ -20499,18 +20490,18 @@
       </c>
       <c r="AX121" s="5"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50">
       <c r="A122" s="2">
         <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>428</v>
+        <v>203</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>429</v>
+        <v>582</v>
       </c>
       <c r="E122" s="2">
         <v>-1</v>
@@ -20649,18 +20640,18 @@
       </c>
       <c r="AX122" s="5"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50">
       <c r="A123" s="2">
         <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>431</v>
+        <v>204</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>426</v>
+        <v>580</v>
       </c>
       <c r="E123" s="2">
         <v>-1</v>
@@ -20799,18 +20790,18 @@
       </c>
       <c r="AX123" s="5"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50">
       <c r="A124" s="2">
         <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E124" s="2">
         <v>-1</v>
@@ -20949,18 +20940,18 @@
       </c>
       <c r="AX124" s="5"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50">
       <c r="A125" s="2">
         <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>435</v>
+        <v>205</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>436</v>
+        <v>584</v>
       </c>
       <c r="E125" s="2">
         <v>-1</v>
@@ -21099,18 +21090,18 @@
       </c>
       <c r="AX125" s="5"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50">
       <c r="A126" s="2">
         <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>438</v>
+        <v>206</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>439</v>
+        <v>585</v>
       </c>
       <c r="E126" s="2">
         <v>-1</v>
@@ -21249,18 +21240,18 @@
       </c>
       <c r="AX126" s="5"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50">
       <c r="A127" s="2">
         <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>441</v>
+        <v>207</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>439</v>
+        <v>585</v>
       </c>
       <c r="E127" s="2">
         <v>-1</v>
@@ -21399,18 +21390,18 @@
       </c>
       <c r="AX127" s="5"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50">
       <c r="A128" s="2">
         <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>443</v>
+        <v>208</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
       <c r="E128" s="2">
         <v>-1</v>
@@ -21549,18 +21540,18 @@
       </c>
       <c r="AX128" s="5"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50">
       <c r="A129" s="2">
         <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>446</v>
+        <v>209</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>447</v>
+        <v>587</v>
       </c>
       <c r="E129" s="2">
         <v>-1</v>
@@ -21699,18 +21690,18 @@
       </c>
       <c r="AX129" s="5"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50">
       <c r="A130" s="2">
         <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>449</v>
+        <v>210</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="E130" s="2">
         <v>-1</v>
@@ -21849,18 +21840,18 @@
       </c>
       <c r="AX130" s="5"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50">
       <c r="A131" s="2">
         <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>452</v>
+        <v>211</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="E131" s="2">
         <v>-1</v>
@@ -21999,18 +21990,18 @@
       </c>
       <c r="AX131" s="5"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50">
       <c r="A132" s="2">
         <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>455</v>
+        <v>212</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>456</v>
+        <v>590</v>
       </c>
       <c r="E132" s="2">
         <v>-1</v>
@@ -22149,18 +22140,18 @@
       </c>
       <c r="AX132" s="5"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50">
       <c r="A133" s="2">
         <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>458</v>
+        <v>591</v>
       </c>
       <c r="E133" s="2">
         <v>-1</v>
@@ -22299,18 +22290,18 @@
       </c>
       <c r="AX133" s="5"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50">
       <c r="A134" s="2">
         <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>460</v>
+        <v>213</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>461</v>
+        <v>592</v>
       </c>
       <c r="E134" s="2">
         <v>-1</v>
@@ -22449,18 +22440,18 @@
       </c>
       <c r="AX134" s="5"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50">
       <c r="A135" s="2">
         <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>463</v>
+        <v>593</v>
       </c>
       <c r="E135" s="2">
         <v>-1</v>
@@ -22599,18 +22590,18 @@
       </c>
       <c r="AX135" s="5"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50">
       <c r="A136" s="2">
         <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>465</v>
+        <v>594</v>
       </c>
       <c r="E136" s="2">
         <v>-1</v>
@@ -22749,18 +22740,18 @@
       </c>
       <c r="AX136" s="5"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50">
       <c r="A137" s="2">
         <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>467</v>
+        <v>214</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>468</v>
+        <v>595</v>
       </c>
       <c r="E137" s="2">
         <v>-1</v>
@@ -22899,18 +22890,18 @@
       </c>
       <c r="AX137" s="5"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50">
       <c r="A138" s="2">
         <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>470</v>
+        <v>215</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>471</v>
+        <v>596</v>
       </c>
       <c r="E138" s="2">
         <v>-1</v>
@@ -23049,18 +23040,18 @@
       </c>
       <c r="AX138" s="5"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50">
       <c r="A139" s="2">
         <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>473</v>
+        <v>216</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>474</v>
+        <v>597</v>
       </c>
       <c r="E139" s="2">
         <v>-1</v>
@@ -23199,18 +23190,18 @@
       </c>
       <c r="AX139" s="5"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50">
       <c r="A140" s="2">
         <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>476</v>
+        <v>217</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>477</v>
+        <v>598</v>
       </c>
       <c r="E140" s="2">
         <v>-1</v>
@@ -23349,18 +23340,18 @@
       </c>
       <c r="AX140" s="5"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50">
       <c r="A141" s="2">
         <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>479</v>
+        <v>218</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>480</v>
+        <v>599</v>
       </c>
       <c r="E141" s="2">
         <v>-1</v>
@@ -23499,18 +23490,18 @@
       </c>
       <c r="AX141" s="5"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50">
       <c r="A142" s="2">
         <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>482</v>
+        <v>600</v>
       </c>
       <c r="E142" s="2">
         <v>-1</v>
@@ -23649,18 +23640,18 @@
       </c>
       <c r="AX142" s="5"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50">
       <c r="A143" s="2">
         <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>484</v>
+        <v>219</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="E143" s="2">
         <v>-1</v>
@@ -23799,18 +23790,18 @@
       </c>
       <c r="AX143" s="5"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50">
       <c r="A144" s="2">
         <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="E144" s="2">
         <v>-1</v>
@@ -23949,18 +23940,18 @@
       </c>
       <c r="AX144" s="5"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50">
       <c r="A145" s="2">
         <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>487</v>
+        <v>416</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="E145" s="2">
         <v>-1</v>
@@ -24099,18 +24090,18 @@
       </c>
       <c r="AX145" s="5"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50">
       <c r="A146" s="2">
         <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>489</v>
+        <v>220</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="E146" s="2">
         <v>-1</v>
@@ -24249,18 +24240,18 @@
       </c>
       <c r="AX146" s="5"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50">
       <c r="A147" s="2">
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>491</v>
+        <v>221</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="E147" s="2">
         <v>-1</v>
@@ -24399,18 +24390,18 @@
       </c>
       <c r="AX147" s="5"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50">
       <c r="A148" s="2">
         <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>492</v>
+        <v>419</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>493</v>
+        <v>222</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>494</v>
+        <v>602</v>
       </c>
       <c r="E148" s="2">
         <v>-1</v>
@@ -24549,18 +24540,18 @@
       </c>
       <c r="AX148" s="5"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50">
       <c r="A149" s="2">
         <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>495</v>
+        <v>420</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>496</v>
+        <v>223</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E149" s="2">
         <v>-1</v>
@@ -24699,18 +24690,18 @@
       </c>
       <c r="AX149" s="5"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50">
       <c r="A150" s="2">
         <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>498</v>
+        <v>421</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>499</v>
+        <v>224</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E150" s="2">
         <v>-1</v>
@@ -24849,18 +24840,18 @@
       </c>
       <c r="AX150" s="5"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50">
       <c r="A151" s="2">
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>501</v>
+        <v>225</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E151" s="2">
         <v>-1</v>
@@ -24999,18 +24990,18 @@
       </c>
       <c r="AX151" s="5"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50">
       <c r="A152" s="2">
         <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>502</v>
+        <v>423</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>503</v>
+        <v>226</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E152" s="2">
         <v>-1</v>
@@ -25149,18 +25140,18 @@
       </c>
       <c r="AX152" s="5"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50">
       <c r="A153" s="2">
         <v>148</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>505</v>
+        <v>227</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E153" s="2">
         <v>-1</v>
@@ -25299,18 +25290,18 @@
       </c>
       <c r="AX153" s="5"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50">
       <c r="A154" s="2">
         <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>507</v>
+        <v>228</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E154" s="2">
         <v>-1</v>
@@ -25449,18 +25440,18 @@
       </c>
       <c r="AX154" s="5"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50">
       <c r="A155" s="2">
         <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>508</v>
+        <v>426</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>509</v>
+        <v>229</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E155" s="2">
         <v>-1</v>
@@ -25599,18 +25590,18 @@
       </c>
       <c r="AX155" s="5"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50">
       <c r="A156" s="2">
         <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>510</v>
+        <v>427</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>511</v>
+        <v>230</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E156" s="2">
         <v>-1</v>
@@ -25749,18 +25740,18 @@
       </c>
       <c r="AX156" s="5"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50">
       <c r="A157" s="2">
         <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>512</v>
+        <v>428</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E157" s="2">
         <v>-1</v>
@@ -25899,18 +25890,18 @@
       </c>
       <c r="AX157" s="5"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50">
       <c r="A158" s="2">
         <v>153</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>515</v>
+        <v>232</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E158" s="2">
         <v>-1</v>
@@ -26049,18 +26040,18 @@
       </c>
       <c r="AX158" s="5"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50">
       <c r="A159" s="2">
         <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>517</v>
+        <v>233</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E159" s="2">
         <v>-1</v>
@@ -26199,18 +26190,18 @@
       </c>
       <c r="AX159" s="5"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50">
       <c r="A160" s="2">
         <v>155</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>519</v>
+        <v>234</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E160" s="2">
         <v>-1</v>
@@ -26349,18 +26340,18 @@
       </c>
       <c r="AX160" s="5"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50">
       <c r="A161" s="2">
         <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>521</v>
+        <v>235</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E161" s="2">
         <v>-1</v>
@@ -26499,18 +26490,18 @@
       </c>
       <c r="AX161" s="5"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50">
       <c r="A162" s="2">
         <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>523</v>
+        <v>236</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="E162" s="2">
         <v>-1</v>
@@ -26649,18 +26640,18 @@
       </c>
       <c r="AX162" s="5"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50">
       <c r="A163" s="2">
         <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>524</v>
+        <v>433</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>525</v>
+        <v>604</v>
       </c>
       <c r="E163" s="2">
         <v>-1</v>
@@ -26799,18 +26790,18 @@
       </c>
       <c r="AX163" s="5"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50">
       <c r="A164" s="2">
         <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>526</v>
+        <v>434</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>527</v>
+        <v>237</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="E164" s="2">
         <v>-1</v>
@@ -26949,18 +26940,18 @@
       </c>
       <c r="AX164" s="5"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50">
       <c r="A165" s="2">
         <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>529</v>
+        <v>435</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>530</v>
+        <v>238</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="E165" s="2">
         <v>-1</v>
@@ -27099,18 +27090,18 @@
       </c>
       <c r="AX165" s="5"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50">
       <c r="A166" s="2">
         <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>532</v>
+        <v>436</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>533</v>
+        <v>239</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="E166" s="2">
         <v>-1</v>
@@ -27249,18 +27240,18 @@
       </c>
       <c r="AX166" s="5"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50">
       <c r="A167" s="2">
         <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>535</v>
+        <v>437</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>536</v>
+        <v>240</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="E167" s="2">
         <v>-1</v>
@@ -27399,18 +27390,18 @@
       </c>
       <c r="AX167" s="5"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50">
       <c r="A168" s="2">
         <v>163</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>538</v>
+        <v>438</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>539</v>
+        <v>241</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="E168" s="2">
         <v>-1</v>
@@ -27549,18 +27540,18 @@
       </c>
       <c r="AX168" s="5"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50">
       <c r="A169" s="2">
         <v>164</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>541</v>
+        <v>439</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="E169" s="2">
         <v>-1</v>
@@ -27699,18 +27690,18 @@
       </c>
       <c r="AX169" s="5"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50">
       <c r="A170" s="2">
         <v>165</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>545</v>
+        <v>243</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="E170" s="2">
         <v>-1</v>
@@ -27849,18 +27840,18 @@
       </c>
       <c r="AX170" s="5"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50">
       <c r="A171" s="2">
         <v>166</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>547</v>
+        <v>440</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>548</v>
+        <v>244</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="E171" s="2">
         <v>-1</v>
@@ -27999,18 +27990,18 @@
       </c>
       <c r="AX171" s="5"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50">
       <c r="A172" s="2">
         <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>550</v>
+        <v>441</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="E172" s="2">
         <v>-1</v>
@@ -28149,18 +28140,18 @@
       </c>
       <c r="AX172" s="5"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50">
       <c r="A173" s="2">
         <v>168</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>552</v>
+        <v>442</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>553</v>
+        <v>245</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="E173" s="2">
         <v>-1</v>
@@ -28299,18 +28290,18 @@
       </c>
       <c r="AX173" s="5"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50">
       <c r="A174" s="2">
         <v>169</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>554</v>
+        <v>443</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>555</v>
+        <v>246</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="E174" s="2">
         <v>-1</v>
@@ -28449,18 +28440,18 @@
       </c>
       <c r="AX174" s="5"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50">
       <c r="A175" s="2">
         <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>557</v>
+        <v>247</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="E175" s="2">
         <v>-1</v>
@@ -28599,18 +28590,18 @@
       </c>
       <c r="AX175" s="5"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50">
       <c r="A176" s="2">
         <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>558</v>
+        <v>445</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>559</v>
+        <v>248</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>560</v>
+        <v>614</v>
       </c>
       <c r="E176" s="2">
         <v>-1</v>
@@ -28749,18 +28740,18 @@
       </c>
       <c r="AX176" s="5"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:50">
       <c r="A177" s="2">
         <v>172</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>561</v>
+        <v>446</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>562</v>
+        <v>249</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="E177" s="2">
         <v>-1</v>
@@ -28899,18 +28890,18 @@
       </c>
       <c r="AX177" s="5"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50">
       <c r="A178" s="2">
         <v>173</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>564</v>
+        <v>447</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>565</v>
+        <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
       <c r="E178" s="2">
         <v>-1</v>
@@ -29049,18 +29040,18 @@
       </c>
       <c r="AX178" s="5"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:50">
       <c r="A179" s="2">
         <v>174</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>567</v>
+        <v>448</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>568</v>
+        <v>251</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>569</v>
+        <v>617</v>
       </c>
       <c r="E179" s="2">
         <v>-1</v>
@@ -29199,18 +29190,18 @@
       </c>
       <c r="AX179" s="5"/>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:50">
       <c r="A180" s="2">
         <v>175</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>570</v>
+        <v>449</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>571</v>
+        <v>252</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="E180" s="2">
         <v>-1</v>
@@ -29349,18 +29340,18 @@
       </c>
       <c r="AX180" s="5"/>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:50">
       <c r="A181" s="2">
         <v>176</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>573</v>
+        <v>450</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>575</v>
+        <v>619</v>
       </c>
       <c r="E181" s="2">
         <v>-1</v>
@@ -29499,18 +29490,18 @@
       </c>
       <c r="AX181" s="5"/>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:50">
       <c r="A182" s="2">
         <v>177</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>576</v>
+        <v>451</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>577</v>
+        <v>254</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="E182" s="2">
         <v>-1</v>
@@ -29649,18 +29640,18 @@
       </c>
       <c r="AX182" s="5"/>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:50">
       <c r="A183" s="2">
         <v>178</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>580</v>
+        <v>255</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="E183" s="2">
         <v>-1</v>
@@ -29799,18 +29790,18 @@
       </c>
       <c r="AX183" s="5"/>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:50">
       <c r="A184" s="2">
         <v>179</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>582</v>
+        <v>453</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>583</v>
+        <v>256</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="E184" s="2">
         <v>-1</v>
@@ -29949,18 +29940,18 @@
       </c>
       <c r="AX184" s="5"/>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:50">
       <c r="A185" s="2">
         <v>180</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>585</v>
+        <v>454</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>586</v>
+        <v>257</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="E185" s="2">
         <v>-1</v>
@@ -30099,18 +30090,18 @@
       </c>
       <c r="AX185" s="5"/>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:50">
       <c r="A186" s="2">
         <v>181</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>588</v>
+        <v>455</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>565</v>
+        <v>250</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="E186" s="2">
         <v>-1</v>
@@ -30249,18 +30240,18 @@
       </c>
       <c r="AX186" s="5"/>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:50">
       <c r="A187" s="2">
         <v>182</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>590</v>
+        <v>456</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>591</v>
+        <v>258</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="E187" s="2">
         <v>-1</v>
@@ -30399,18 +30390,18 @@
       </c>
       <c r="AX187" s="5"/>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:50">
       <c r="A188" s="2">
         <v>183</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>593</v>
+        <v>457</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>594</v>
+        <v>259</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="E188" s="2">
         <v>-1</v>
@@ -30549,18 +30540,18 @@
       </c>
       <c r="AX188" s="5"/>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:50">
       <c r="A189" s="2">
         <v>184</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>596</v>
+        <v>458</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>597</v>
+        <v>260</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="E189" s="2">
         <v>-1</v>
@@ -30699,18 +30690,18 @@
       </c>
       <c r="AX189" s="5"/>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:50">
       <c r="A190" s="2">
         <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>599</v>
+        <v>459</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>600</v>
+        <v>261</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="E190" s="2">
         <v>-1</v>
@@ -30849,18 +30840,18 @@
       </c>
       <c r="AX190" s="5"/>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:50">
       <c r="A191" s="2">
         <v>186</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>602</v>
+        <v>460</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>603</v>
+        <v>262</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="E191" s="2">
         <v>-1</v>
@@ -30999,18 +30990,18 @@
       </c>
       <c r="AX191" s="5"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:50">
       <c r="A192" s="2">
         <v>187</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>523</v>
+        <v>236</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="E192" s="2">
         <v>-1</v>
@@ -31149,18 +31140,18 @@
       </c>
       <c r="AX192" s="5"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:50">
       <c r="A193" s="2">
         <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>607</v>
+        <v>462</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>608</v>
+        <v>263</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="E193" s="2">
         <v>-1</v>
@@ -31299,18 +31290,18 @@
       </c>
       <c r="AX193" s="5"/>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:50">
       <c r="A194" s="2">
         <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>609</v>
+        <v>463</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>610</v>
+        <v>264</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="E194" s="2">
         <v>-1</v>
@@ -31449,18 +31440,18 @@
       </c>
       <c r="AX194" s="5"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:50">
       <c r="A195" s="2">
         <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>612</v>
+        <v>464</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>613</v>
+        <v>265</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="E195" s="2">
         <v>-1</v>
@@ -31599,18 +31590,18 @@
       </c>
       <c r="AX195" s="5"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:50">
       <c r="A196" s="2">
         <v>191</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>615</v>
+        <v>465</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>565</v>
+        <v>250</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="E196" s="2">
         <v>-1</v>
@@ -31749,18 +31740,18 @@
       </c>
       <c r="AX196" s="5"/>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:50">
       <c r="A197" s="2">
         <v>192</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>617</v>
+        <v>466</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>618</v>
+        <v>266</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="E197" s="2">
         <v>-1</v>
@@ -31899,18 +31890,18 @@
       </c>
       <c r="AX197" s="5"/>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:50">
       <c r="A198" s="2">
         <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>620</v>
+        <v>467</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>621</v>
+        <v>267</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="E198" s="2">
         <v>-1</v>
@@ -32049,18 +32040,18 @@
       </c>
       <c r="AX198" s="5"/>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:50">
       <c r="A199" s="2">
         <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>623</v>
+        <v>468</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>624</v>
+        <v>268</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="E199" s="2">
         <v>-1</v>
@@ -32199,18 +32190,18 @@
       </c>
       <c r="AX199" s="5"/>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:50">
       <c r="A200" s="2">
         <v>195</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>626</v>
+        <v>469</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="E200" s="2">
         <v>-1</v>
@@ -32349,18 +32340,18 @@
       </c>
       <c r="AX200" s="5"/>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:50">
       <c r="A201" s="2">
         <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>628</v>
+        <v>470</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>629</v>
+        <v>269</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E201" s="2">
         <v>-1</v>
@@ -32499,18 +32490,18 @@
       </c>
       <c r="AX201" s="5"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:50">
       <c r="A202" s="2">
         <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>631</v>
+        <v>471</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>632</v>
+        <v>270</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E202" s="2">
         <v>-1</v>
@@ -32649,18 +32640,18 @@
       </c>
       <c r="AX202" s="5"/>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:50">
       <c r="A203" s="2">
         <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>634</v>
+        <v>472</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>634</v>
+        <v>472</v>
       </c>
       <c r="E203" s="2">
         <v>-1</v>
@@ -32799,18 +32790,18 @@
       </c>
       <c r="AX203" s="5"/>
     </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:50">
       <c r="A204" s="2">
         <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>635</v>
+        <v>473</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>636</v>
+        <v>271</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>635</v>
+        <v>473</v>
       </c>
       <c r="E204" s="2">
         <v>-1</v>
